--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5331,36 +5331,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5374,50 +5353,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5428,8 +5390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5437,7 +5400,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5459,18 +5422,55 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5483,61 +5483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5555,7 +5501,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5567,31 +5579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5603,25 +5603,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5639,31 +5639,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,6 +5674,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5700,90 +5774,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -40171,7 +40171,7 @@
         <v>0</v>
       </c>
       <c r="N775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5317,8 +5317,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -5337,9 +5337,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5353,33 +5390,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5421,17 +5444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5444,31 +5458,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5483,7 +5483,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5495,13 +5591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5513,25 +5621,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5543,127 +5657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,6 +5674,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5702,16 +5717,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5745,32 +5769,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5780,10 +5780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -37670,7 +37670,7 @@
         <v>0</v>
       </c>
       <c r="N717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:14">
@@ -38661,7 +38661,7 @@
         <v>0</v>
       </c>
       <c r="N740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5316,9 +5316,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -5331,27 +5331,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -5359,34 +5344,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5413,9 +5374,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5429,16 +5412,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5446,13 +5429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5473,6 +5449,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5483,7 +5483,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5495,7 +5513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5507,19 +5525,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5537,7 +5639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5549,7 +5651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5561,109 +5663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,6 +5674,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5694,9 +5703,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5716,17 +5757,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5739,51 +5774,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -13684,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="N169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -15608,7 +15608,7 @@
         <v>0</v>
       </c>
       <c r="N213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="N325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -22026,7 +22026,7 @@
         <v>0</v>
       </c>
       <c r="N359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:14">
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="N440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -27212,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="N477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:14">
@@ -31512,7 +31512,7 @@
         <v>0</v>
       </c>
       <c r="N575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:14">
@@ -32436,7 +32436,7 @@
         <v>0</v>
       </c>
       <c r="N596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:14">
@@ -36078,7 +36078,7 @@
         <v>0</v>
       </c>
       <c r="N680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:14">
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:14">
@@ -42358,7 +42358,7 @@
         <v>0</v>
       </c>
       <c r="N826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5316,10 +5316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5330,13 +5330,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -5351,17 +5345,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5375,9 +5367,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5397,38 +5434,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5449,30 +5473,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5483,37 +5483,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5531,13 +5519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5555,13 +5537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5573,13 +5567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5591,25 +5609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5621,25 +5627,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5651,19 +5645,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,15 +5674,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5703,26 +5694,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5759,9 +5742,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5780,10 +5780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -48051,7 +48051,7 @@
         <v>0</v>
       </c>
       <c r="N956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5316,8 +5316,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -5330,9 +5330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5346,42 +5345,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5402,33 +5374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5458,6 +5405,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -5473,6 +5458,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5483,61 +5483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5555,25 +5513,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5591,7 +5615,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5603,7 +5645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5615,55 +5663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5692,11 +5692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5706,6 +5712,35 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5739,51 +5774,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="N481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -42660,7 +42660,7 @@
         <v>0</v>
       </c>
       <c r="N833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5316,10 +5316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5345,7 +5345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5353,7 +5353,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5374,8 +5410,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5386,6 +5431,30 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5404,75 +5473,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5489,7 +5489,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5501,13 +5609,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5525,72 +5657,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5598,72 +5664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5692,21 +5692,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5716,11 +5701,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5732,15 +5732,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5761,16 +5752,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5780,10 +5780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,130 +5792,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6246,8 +6246,8 @@
   <sheetPr/>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D171" workbookViewId="0">
+      <selection activeCell="N171" sqref="N171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -22862,7 +22862,7 @@
         <v>0</v>
       </c>
       <c r="N378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:14">
@@ -38617,7 +38617,7 @@
         <v>0</v>
       </c>
       <c r="N739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:14">
@@ -49000,7 +49000,7 @@
         <v>0</v>
       </c>
       <c r="N979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:14">
@@ -49082,7 +49082,7 @@
         <v>0</v>
       </c>
       <c r="N981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5331,14 +5331,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5368,14 +5368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5389,7 +5382,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5412,7 +5421,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5442,17 +5451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5483,7 +5483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5495,37 +5495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5549,6 +5519,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5561,7 +5537,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5573,85 +5651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5663,7 +5663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5725,6 +5725,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5751,21 +5766,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5780,10 +5780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,16 +5792,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5810,115 +5810,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6246,8 +6246,8 @@
   <sheetPr/>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D171" workbookViewId="0">
-      <selection activeCell="N171" sqref="N171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -12150,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -22862,7 +22862,7 @@
         <v>0</v>
       </c>
       <c r="N378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5317,9 +5317,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5344,8 +5344,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5360,15 +5400,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5381,16 +5428,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5399,6 +5447,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5414,61 +5469,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5489,13 +5489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5507,7 +5531,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5525,13 +5585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5549,31 +5615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5585,13 +5633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5603,67 +5657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,21 +5674,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5716,11 +5701,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5751,26 +5766,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5780,10 +5780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -9906,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="N307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -19826,7 +19826,7 @@
         <v>0</v>
       </c>
       <c r="N309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="N310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -20046,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="N314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -21190,7 +21190,7 @@
         <v>0</v>
       </c>
       <c r="N340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -21278,7 +21278,7 @@
         <v>0</v>
       </c>
       <c r="N342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="N346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -26288,7 +26288,7 @@
         <v>0</v>
       </c>
       <c r="N456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:14">
@@ -26376,7 +26376,7 @@
         <v>0</v>
       </c>
       <c r="N458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:14">
@@ -26684,7 +26684,7 @@
         <v>0</v>
       </c>
       <c r="N465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:14">
@@ -26728,7 +26728,7 @@
         <v>0</v>
       </c>
       <c r="N466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:14">
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="N476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:14">
@@ -27344,7 +27344,7 @@
         <v>0</v>
       </c>
       <c r="N480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:14">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="N483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:14">
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="N539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:14">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="N547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:14">
@@ -36034,7 +36034,7 @@
         <v>0</v>
       </c>
       <c r="N679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:14">
@@ -36207,7 +36207,7 @@
         <v>0</v>
       </c>
       <c r="N683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:14">
@@ -37025,7 +37025,7 @@
         <v>0</v>
       </c>
       <c r="N702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:14">
@@ -37714,7 +37714,7 @@
         <v>0</v>
       </c>
       <c r="N718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:14">
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="N727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:14">
@@ -38749,7 +38749,7 @@
         <v>0</v>
       </c>
       <c r="N742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:14">
@@ -40857,7 +40857,7 @@
         <v>0</v>
       </c>
       <c r="N791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:14">
@@ -41631,7 +41631,7 @@
         <v>0</v>
       </c>
       <c r="N809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:14">
@@ -42188,7 +42188,7 @@
         <v>0</v>
       </c>
       <c r="N822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:14">
@@ -43141,7 +43141,7 @@
         <v>0</v>
       </c>
       <c r="N844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:14">
@@ -43311,7 +43311,7 @@
         <v>0</v>
       </c>
       <c r="N848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:14">
@@ -43440,7 +43440,7 @@
         <v>0</v>
       </c>
       <c r="N851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5317,9 +5317,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5331,37 +5331,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5391,9 +5375,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5407,22 +5443,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5443,36 +5473,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5483,7 +5483,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5495,25 +5531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5525,61 +5549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5603,25 +5573,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5633,37 +5627,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,6 +5674,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5701,26 +5719,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5740,6 +5745,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5754,36 +5774,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -22378,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="N367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -33404,7 +33404,7 @@
         <v>0</v>
       </c>
       <c r="N618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5317,9 +5317,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5338,7 +5338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5383,53 +5383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5438,21 +5392,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5473,6 +5412,67 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5480,6 +5480,54 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5495,55 +5543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5555,37 +5561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5603,19 +5579,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5627,25 +5633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5657,13 +5663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5686,11 +5686,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5729,61 +5774,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,16 +5792,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5810,115 +5810,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -11490,7 +11490,7 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -16224,7 +16224,7 @@
         <v>0</v>
       </c>
       <c r="N227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -16532,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="N234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -22334,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="N366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:14">
@@ -22466,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="N369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="N486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:14">
@@ -28045,7 +28045,7 @@
         <v>0</v>
       </c>
       <c r="N496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:14">
@@ -28089,7 +28089,7 @@
         <v>0</v>
       </c>
       <c r="N497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:14">
@@ -39696,7 +39696,7 @@
         <v>0</v>
       </c>
       <c r="N764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:14">
@@ -39954,7 +39954,7 @@
         <v>0</v>
       </c>
       <c r="N770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:14">
@@ -39998,7 +39998,7 @@
         <v>0</v>
       </c>
       <c r="N771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:14">
@@ -41203,7 +41203,7 @@
         <v>0</v>
       </c>
       <c r="N799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:14">
@@ -42616,7 +42616,7 @@
         <v>0</v>
       </c>
       <c r="N832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:14">
@@ -44798,7 +44798,7 @@
         <v>0</v>
       </c>
       <c r="N882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:14">
@@ -44842,7 +44842,7 @@
         <v>0</v>
       </c>
       <c r="N883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:14">
@@ -47875,7 +47875,7 @@
         <v>0</v>
       </c>
       <c r="N952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5317,9 +5317,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5332,97 +5332,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5445,7 +5354,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5454,6 +5385,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5473,6 +5425,54 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5483,133 +5483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5627,6 +5507,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5639,7 +5567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5651,19 +5585,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,54 +5674,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5764,6 +5716,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5774,16 +5741,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -33932,7 +33932,7 @@
         <v>0</v>
       </c>
       <c r="N630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:14">
@@ -38705,7 +38705,7 @@
         <v>0</v>
       </c>
       <c r="N741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5318,8 +5318,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5345,21 +5345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5374,9 +5359,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5384,9 +5368,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5397,13 +5389,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -5428,15 +5414,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5447,14 +5425,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5473,6 +5443,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5483,13 +5483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5501,139 +5501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5651,7 +5519,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5663,7 +5621,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5687,6 +5687,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5745,23 +5760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5769,8 +5769,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5780,10 +5780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -32656,7 +32656,7 @@
         <v>0</v>
       </c>
       <c r="N601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5317,9 +5317,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5337,82 +5337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5445,14 +5369,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5473,6 +5443,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5483,13 +5483,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5507,7 +5627,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5519,151 +5663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5677,32 +5677,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5757,11 +5736,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5780,10 +5780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34058,7 +34058,7 @@
         <v>0</v>
       </c>
       <c r="N633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:14">
@@ -34102,7 +34102,7 @@
         <v>0</v>
       </c>
       <c r="N634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:14">
@@ -34920,7 +34920,7 @@
         <v>0</v>
       </c>
       <c r="N653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -34964,7 +34964,7 @@
         <v>0</v>
       </c>
       <c r="N654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -35691,7 +35691,7 @@
         <v>0</v>
       </c>
       <c r="N671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:14">
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:14">
@@ -36509,7 +36509,7 @@
         <v>0</v>
       </c>
       <c r="N690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:14">
@@ -36553,7 +36553,7 @@
         <v>0</v>
       </c>
       <c r="N691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:14">
@@ -37456,7 +37456,7 @@
         <v>0</v>
       </c>
       <c r="N712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:14">
@@ -37500,7 +37500,7 @@
         <v>0</v>
       </c>
       <c r="N713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:14">
@@ -38576,7 +38576,7 @@
         <v>0</v>
       </c>
       <c r="N738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:14">
@@ -39523,7 +39523,7 @@
         <v>0</v>
       </c>
       <c r="N760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:14">
@@ -40514,7 +40514,7 @@
         <v>0</v>
       </c>
       <c r="N783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:14">
@@ -41373,7 +41373,7 @@
         <v>0</v>
       </c>
       <c r="N803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:14">
@@ -42232,7 +42232,7 @@
         <v>0</v>
       </c>
       <c r="N823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5317,9 +5317,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5331,7 +5331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5339,6 +5339,73 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5368,61 +5435,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5444,33 +5459,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5483,7 +5483,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5495,25 +5561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5525,13 +5579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5549,43 +5597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5597,7 +5615,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5609,13 +5645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5627,43 +5663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,54 +5674,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5751,6 +5703,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5769,8 +5754,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5780,10 +5780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,133 +5792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9334,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="N444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:14">
@@ -25980,7 +25980,7 @@
         <v>0</v>
       </c>
       <c r="N449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -26420,7 +26420,7 @@
         <v>0</v>
       </c>
       <c r="N459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:14">
@@ -26772,7 +26772,7 @@
         <v>0</v>
       </c>
       <c r="N467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:14">
@@ -32172,7 +32172,7 @@
         <v>0</v>
       </c>
       <c r="N590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:14">
@@ -34269,7 +34269,7 @@
         <v>0</v>
       </c>
       <c r="N638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5316,10 +5316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5331,7 +5331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5341,44 +5341,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5396,13 +5358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -5411,11 +5366,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5436,8 +5436,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5451,26 +5458,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5483,25 +5483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5513,13 +5507,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5537,7 +5567,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5549,7 +5627,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5561,13 +5651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5579,91 +5663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,50 +5674,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5751,11 +5707,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5774,16 +5745,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,16 +5792,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5810,115 +5810,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16972,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="N244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -20882,7 +20882,7 @@
         <v>0</v>
       </c>
       <c r="N333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="N445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:14">
@@ -35348,7 +35348,7 @@
         <v>0</v>
       </c>
       <c r="N663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:14">
@@ -39652,7 +39652,7 @@
         <v>0</v>
       </c>
       <c r="N763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5316,10 +5316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5344,6 +5344,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -5358,24 +5411,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5391,29 +5445,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5442,37 +5473,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5489,13 +5489,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5507,55 +5591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5573,13 +5609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5591,49 +5621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5645,13 +5633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5663,7 +5657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5674,6 +5674,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5692,17 +5707,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5726,7 +5755,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5745,45 +5774,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5792,130 +5792,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -49082,7 +49082,7 @@
         <v>0</v>
       </c>
       <c r="N981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5054,61 +5054,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5120,32 +5070,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5166,9 +5093,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5179,6 +5148,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5197,6 +5174,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5207,49 +5207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5267,7 +5237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5279,7 +5279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5291,67 +5303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5369,7 +5327,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5381,13 +5381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5426,6 +5426,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -5442,35 +5457,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5498,16 +5487,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="N239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -20386,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="N328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -45820,7 +45820,7 @@
         <v>0</v>
       </c>
       <c r="N913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5054,45 +5054,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -5102,50 +5063,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5176,7 +5093,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5190,11 +5166,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5207,13 +5207,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5225,169 +5387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5405,37 +5405,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5451,15 +5421,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5482,8 +5443,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5498,16 +5468,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15860,7 +15860,7 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -25308,7 +25308,7 @@
         <v>0</v>
       </c>
       <c r="N440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5055,7 +5055,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5063,6 +5078,30 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5093,29 +5132,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5123,21 +5147,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5153,6 +5162,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5181,22 +5197,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5207,7 +5207,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5219,55 +5345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5279,13 +5363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5297,97 +5381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5404,8 +5404,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5421,6 +5445,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5443,17 +5482,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5468,46 +5498,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -26273,7 +26273,7 @@
         <v>0</v>
       </c>
       <c r="N462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5040,10 +5040,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5055,14 +5055,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5077,41 +5084,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5131,6 +5106,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -5138,8 +5145,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5166,37 +5197,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5207,7 +5207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5219,43 +5231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5267,97 +5249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5375,7 +5267,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5387,7 +5303,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5406,6 +5406,56 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5435,21 +5485,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5463,51 +5498,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -23284,7 +23284,7 @@
         <v>0</v>
       </c>
       <c r="N394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5040,10 +5040,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5055,6 +5055,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5062,7 +5069,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5076,8 +5091,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5108,22 +5184,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5137,66 +5197,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5207,7 +5207,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5219,175 +5381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5398,6 +5398,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5419,51 +5473,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5483,31 +5498,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16872,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="N248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -24428,7 +24428,7 @@
         <v>0</v>
       </c>
       <c r="N420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -38545,7 +38545,7 @@
         <v>0</v>
       </c>
       <c r="N745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:14">
@@ -44519,7 +44519,7 @@
         <v>0</v>
       </c>
       <c r="N882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5040,9 +5040,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -5055,13 +5055,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5069,7 +5062,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5099,9 +5092,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5110,14 +5102,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5145,22 +5129,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5182,19 +5169,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5207,13 +5207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5225,19 +5225,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5255,7 +5261,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5267,109 +5339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5387,7 +5357,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5398,21 +5398,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5431,21 +5416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5455,20 +5425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5498,16 +5465,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14936,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="N204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5040,9 +5040,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -5055,14 +5055,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5084,9 +5085,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5099,29 +5106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -5129,9 +5113,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5147,30 +5154,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5191,8 +5175,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5207,7 +5207,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5225,19 +5255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5255,7 +5273,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5267,85 +5309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5363,7 +5333,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5375,19 +5381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5398,6 +5398,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5425,21 +5488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5450,64 +5498,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -14936,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="N204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -36053,7 +36053,7 @@
         <v>0</v>
       </c>
       <c r="N687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:14">
@@ -45738,7 +45738,7 @@
         <v>0</v>
       </c>
       <c r="N911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:14">
@@ -45820,7 +45820,7 @@
         <v>0</v>
       </c>
       <c r="N913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5040,9 +5040,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -5055,7 +5055,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5085,36 +5114,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5130,31 +5171,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5162,37 +5193,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5207,7 +5207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5219,43 +5231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5273,37 +5249,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5321,7 +5297,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5333,13 +5345,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5351,43 +5369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5401,17 +5401,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5431,15 +5425,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5455,11 +5440,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5483,18 +5485,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5504,10 +5504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="N173">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -35150,7 +35150,7 @@
         <v>0</v>
       </c>
       <c r="N666">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="667" spans="1:14">
@@ -46189,7 +46189,7 @@
         <v>0</v>
       </c>
       <c r="N922">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="923" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5042,8 +5042,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5055,28 +5055,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5084,39 +5062,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5132,7 +5099,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5153,30 +5175,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -5184,15 +5182,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5207,7 +5207,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5219,7 +5339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5231,31 +5351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5267,31 +5363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5303,31 +5375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5339,55 +5387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5398,6 +5398,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5425,21 +5484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5454,60 +5498,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25308,7 +25308,7 @@
         <v>0</v>
       </c>
       <c r="N440">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -35282,7 +35282,7 @@
         <v>0</v>
       </c>
       <c r="N669">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="670" spans="1:14">
@@ -45492,7 +45492,7 @@
         <v>0</v>
       </c>
       <c r="N905">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="906" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5041,9 +5041,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -5062,23 +5062,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5089,9 +5083,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5105,33 +5098,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5145,13 +5120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -5160,23 +5128,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5197,6 +5151,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5207,31 +5207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5255,13 +5237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5279,7 +5267,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5291,25 +5291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5321,31 +5315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5363,31 +5333,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5398,6 +5398,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5422,30 +5485,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5459,55 +5498,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -11610,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -12487,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -12619,7 +12619,7 @@
         <v>1</v>
       </c>
       <c r="N151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -17353,7 +17353,7 @@
         <v>1</v>
       </c>
       <c r="N259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -24120,7 +24120,7 @@
         <v>0</v>
       </c>
       <c r="N413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:14">
@@ -25308,7 +25308,7 @@
         <v>0</v>
       </c>
       <c r="N440">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="N454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:14">
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="N472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:14">
@@ -27285,7 +27285,7 @@
         <v>1</v>
       </c>
       <c r="N485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:14">
@@ -30664,7 +30664,7 @@
         <v>0</v>
       </c>
       <c r="N562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:14">
@@ -31280,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="N576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:14">
@@ -32142,7 +32142,7 @@
         <v>0</v>
       </c>
       <c r="N596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:14">
@@ -35282,7 +35282,7 @@
         <v>0</v>
       </c>
       <c r="N669">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:14">
@@ -36572,7 +36572,7 @@
         <v>0</v>
       </c>
       <c r="N699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:14">
@@ -38375,7 +38375,7 @@
         <v>0</v>
       </c>
       <c r="N741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:14">
@@ -39149,7 +39149,7 @@
         <v>0</v>
       </c>
       <c r="N759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:14">
@@ -39190,7 +39190,7 @@
         <v>0</v>
       </c>
       <c r="N760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:14">
@@ -40310,7 +40310,7 @@
         <v>0</v>
       </c>
       <c r="N786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:14">
@@ -40524,7 +40524,7 @@
         <v>0</v>
       </c>
       <c r="N791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:14">
@@ -40826,7 +40826,7 @@
         <v>0</v>
       </c>
       <c r="N798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:14">
@@ -42234,7 +42234,7 @@
         <v>0</v>
       </c>
       <c r="N830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:14">
@@ -42806,7 +42806,7 @@
         <v>1</v>
       </c>
       <c r="N843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:14">
@@ -44915,7 +44915,7 @@
         <v>0</v>
       </c>
       <c r="N891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:14">
@@ -45492,7 +45492,7 @@
         <v>0</v>
       </c>
       <c r="N905">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:14">
@@ -45656,7 +45656,7 @@
         <v>0</v>
       </c>
       <c r="N909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:14">
@@ -45943,7 +45943,7 @@
         <v>0</v>
       </c>
       <c r="N916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5040,9 +5040,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -5055,7 +5055,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5069,7 +5107,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -5077,14 +5115,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5098,8 +5143,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5107,30 +5169,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5152,49 +5190,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5207,55 +5207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5273,7 +5237,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5285,79 +5369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5369,25 +5381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5398,54 +5398,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5460,15 +5412,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5498,16 +5441,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,133 +5516,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -11698,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -17268,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="N257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="N277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -19594,7 +19594,7 @@
         <v>0</v>
       </c>
       <c r="N310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -31148,7 +31148,7 @@
         <v>0</v>
       </c>
       <c r="N573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:14">
@@ -43158,7 +43158,7 @@
         <v>0</v>
       </c>
       <c r="N851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:14">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -5040,9 +5040,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -5061,6 +5061,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -5070,7 +5091,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5101,14 +5122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5117,20 +5131,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5152,7 +5152,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5169,14 +5177,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5207,7 +5207,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5219,19 +5273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5243,43 +5297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5297,19 +5315,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5321,67 +5369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5401,6 +5401,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5411,21 +5420,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -5446,11 +5440,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5466,20 +5466,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5504,10 +5504,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5516,43 +5516,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5561,88 +5561,88 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16927,7 +16927,7 @@
         <v>575</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="s">
         <v>557</v>
@@ -17103,7 +17103,7 @@
         <v>582</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254" t="s">
         <v>557</v>
@@ -17279,7 +17279,7 @@
         <v>586</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D258" t="s">
         <v>557</v>
@@ -17408,7 +17408,7 @@
         <v>590</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261" t="s">
         <v>557</v>
@@ -17584,7 +17584,7 @@
         <v>594</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265" t="s">
         <v>557</v>
@@ -21805,7 +21805,7 @@
         <v>754</v>
       </c>
       <c r="C361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="s">
         <v>741</v>
@@ -42817,7 +42817,7 @@
         <v>1570</v>
       </c>
       <c r="C844">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D844" t="s">
         <v>34</v>
@@ -42905,7 +42905,7 @@
         <v>1572</v>
       </c>
       <c r="C846">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D846" t="s">
         <v>34</v>
@@ -45380,7 +45380,7 @@
         <v>1640</v>
       </c>
       <c r="C903">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D903" t="s">
         <v>34</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4643,10 +4643,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -4665,7 +4665,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4687,14 +4687,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4708,24 +4701,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4738,11 +4716,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4764,40 +4787,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4810,7 +4810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4822,31 +4822,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4864,25 +4864,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4894,103 +4978,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5013,6 +5013,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5028,17 +5043,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5057,60 +5101,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5119,133 +5119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10313,7 +10313,7 @@
         <v>315</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -37263,7 +37263,7 @@
         <v>883</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>852</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4643,9 +4643,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -4658,14 +4658,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4687,68 +4688,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4763,9 +4717,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4787,7 +4749,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4800,6 +4778,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -4810,7 +4810,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4822,7 +4852,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4834,7 +4912,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4846,19 +4954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4876,121 +4984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5004,11 +5004,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5028,17 +5034,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5046,8 +5057,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5070,34 +5096,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5107,10 +5107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5119,31 +5119,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5152,100 +5152,100 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -22059,7 +22059,7 @@
         <v>1361</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="s">
         <v>1358</v>
@@ -37073,7 +37073,7 @@
         <v>876</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D20" t="s">
         <v>852</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4644,9 +4644,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -4654,21 +4654,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4695,6 +4680,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4708,16 +4700,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4742,14 +4734,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4788,6 +4772,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4795,7 +4795,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4810,7 +4810,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4822,7 +4858,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4834,25 +4924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4864,7 +4942,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4876,19 +4978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4900,97 +4990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5004,17 +5004,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5034,22 +5028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5095,6 +5084,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -5107,10 +5107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5119,133 +5119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10237,7 +10237,7 @@
         <v>312</v>
       </c>
       <c r="C123" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>13</v>
@@ -10275,7 +10275,7 @@
         <v>314</v>
       </c>
       <c r="C124" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>13</v>
@@ -18446,7 +18446,7 @@
         <v>410</v>
       </c>
       <c r="C54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
         <v>318</v>
@@ -22059,7 +22059,7 @@
         <v>1361</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>1358</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4644,9 +4644,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -4654,6 +4654,56 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4673,28 +4723,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4703,13 +4732,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4739,6 +4761,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4762,44 +4800,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -4810,7 +4810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4822,7 +4840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4834,7 +4858,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4846,73 +4978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4924,73 +4990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5001,6 +5001,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5028,41 +5052,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5093,11 +5087,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5107,10 +5107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5119,133 +5119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4644,9 +4644,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -4657,15 +4657,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4673,27 +4667,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4723,7 +4696,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4731,7 +4718,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4761,22 +4756,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4793,11 +4772,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4810,7 +4810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4822,7 +4822,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4834,13 +4864,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4852,85 +4966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4942,43 +4978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4990,7 +4990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5001,6 +5001,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5022,41 +5037,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5078,11 +5071,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5107,10 +5107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5119,133 +5119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6475,7 +6475,7 @@
         <v>69</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -7463,7 +7463,7 @@
         <v>140</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -7995,7 +7995,7 @@
         <v>173</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -8679,7 +8679,7 @@
         <v>222</v>
       </c>
       <c r="C82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>13</v>
@@ -10680,7 +10680,7 @@
         <v>1139</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="s">
         <v>1132</v>
@@ -11718,7 +11718,7 @@
         <v>1175</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="s">
         <v>1166</v>
@@ -12566,7 +12566,7 @@
         <v>1204</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="s">
         <v>1196</v>
@@ -12642,7 +12642,7 @@
         <v>1206</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1196</v>
@@ -13528,7 +13528,7 @@
         <v>1238</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="s">
         <v>1228</v>
@@ -13642,7 +13642,7 @@
         <v>1241</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>1228</v>
@@ -14414,7 +14414,7 @@
         <v>1265</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="s">
         <v>1260</v>
@@ -15262,7 +15262,7 @@
         <v>1292</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="s">
         <v>1287</v>
@@ -17078,7 +17078,7 @@
         <v>346</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>318</v>
@@ -17344,7 +17344,7 @@
         <v>364</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>318</v>
@@ -17534,7 +17534,7 @@
         <v>369</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>318</v>
@@ -17648,7 +17648,7 @@
         <v>373</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>318</v>
@@ -17952,7 +17952,7 @@
         <v>385</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>318</v>
@@ -18180,7 +18180,7 @@
         <v>397</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>318</v>
@@ -18674,7 +18674,7 @@
         <v>423</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D60" t="s">
         <v>318</v>
@@ -18788,7 +18788,7 @@
         <v>427</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>318</v>
@@ -18826,7 +18826,7 @@
         <v>429</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
         <v>318</v>
@@ -22553,7 +22553,7 @@
         <v>1380</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>1358</v>
@@ -24498,7 +24498,7 @@
         <v>1434</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D38" t="s">
         <v>1358</v>
@@ -25220,7 +25220,7 @@
         <v>1458</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D57" t="s">
         <v>1358</v>
@@ -26545,7 +26545,7 @@
         <v>1496</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D19" t="s">
         <v>1358</v>
@@ -26583,7 +26583,7 @@
         <v>1497</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D20" t="s">
         <v>1358</v>
@@ -26659,7 +26659,7 @@
         <v>1499</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D22" t="s">
         <v>1358</v>
@@ -26697,7 +26697,7 @@
         <v>1500</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D23" t="s">
         <v>1358</v>
@@ -26735,7 +26735,7 @@
         <v>1501</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D24" t="s">
         <v>1358</v>
@@ -26887,7 +26887,7 @@
         <v>1506</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D28" t="s">
         <v>1358</v>
@@ -26963,7 +26963,7 @@
         <v>1508</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D30" t="s">
         <v>1358</v>
@@ -27039,7 +27039,7 @@
         <v>1510</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D32" t="s">
         <v>1358</v>
@@ -27115,7 +27115,7 @@
         <v>1512</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>1358</v>
@@ -27229,7 +27229,7 @@
         <v>1517</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D37" t="s">
         <v>1358</v>
@@ -29618,7 +29618,7 @@
         <v>597</v>
       </c>
       <c r="C59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>522</v>
@@ -30036,7 +30036,7 @@
         <v>614</v>
       </c>
       <c r="C70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>522</v>
@@ -34798,7 +34798,7 @@
         <v>793</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
         <v>690</v>
@@ -37149,7 +37149,7 @@
         <v>879</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>852</v>
@@ -37301,7 +37301,7 @@
         <v>885</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>852</v>
@@ -38213,7 +38213,7 @@
         <v>925</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>852</v>
@@ -38631,7 +38631,7 @@
         <v>939</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
         <v>852</v>
@@ -39011,7 +39011,7 @@
         <v>956</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
         <v>852</v>
@@ -41058,7 +41058,7 @@
         <v>1029</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="s">
         <v>1024</v>
@@ -41944,7 +41944,7 @@
         <v>1058</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="s">
         <v>1050</v>
@@ -42640,7 +42640,7 @@
         <v>1080</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="s">
         <v>1075</v>
@@ -43488,7 +43488,7 @@
         <v>1108</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="s">
         <v>1101</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -2168,6 +2168,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>寄托</t>
     </r>
     <r>
@@ -5851,6 +5858,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>热火</t>
     </r>
     <r>
@@ -6042,6 +6056,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>生命</t>
     </r>
     <r>
@@ -6263,6 +6284,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>损耗</t>
     </r>
     <r>
@@ -7669,8 +7697,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -7682,20 +7710,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -7703,7 +7717,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7712,14 +7742,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7741,7 +7763,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7752,6 +7789,35 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7771,24 +7837,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7799,29 +7850,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7846,7 +7874,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7858,13 +7922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7876,55 +7940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7936,7 +7952,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7948,13 +7976,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7972,31 +8012,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8008,25 +8054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8055,17 +8083,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8077,6 +8094,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8108,6 +8136,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8122,31 +8165,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8155,133 +8183,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13603,7 +13631,7 @@
         <v>431</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8037,12 +8037,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8052,22 +8052,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8089,20 +8081,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8111,7 +8089,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8132,6 +8124,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -8170,14 +8163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8189,6 +8174,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8223,31 +8216,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8259,37 +8252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8307,7 +8270,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8319,31 +8330,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8355,37 +8372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8401,12 +8400,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -8414,6 +8407,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8431,23 +8433,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8467,11 +8454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8485,17 +8478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8520,10 +8513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8532,143 +8525,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16940,7 +16932,7 @@
       <c r="B3" t="s">
         <v>2022</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>2023</v>
       </c>
       <c r="D3">
@@ -18051,7 +18043,7 @@
       <c r="B5" t="s">
         <v>2080</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>2081</v>
       </c>
       <c r="D5">
@@ -19423,7 +19415,7 @@
       <c r="B11" t="s">
         <v>2147</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>2148</v>
       </c>
       <c r="D11" s="1">
@@ -22865,7 +22857,7 @@
         <v>589</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>507</v>
@@ -25765,7 +25757,7 @@
       <c r="B93" t="s">
         <v>780</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>781</v>
       </c>
       <c r="D93">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8037,10 +8037,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -8059,29 +8059,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8095,6 +8073,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -8103,17 +8082,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8124,9 +8095,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8179,6 +8157,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -8188,10 +8173,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8216,7 +8216,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8228,7 +8294,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8240,25 +8372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8270,133 +8396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8412,44 +8412,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8465,6 +8432,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8493,17 +8484,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8513,10 +8513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8525,133 +8525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12753,7 +12753,7 @@
         <v>362</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>16</v>
@@ -18575,7 +18575,7 @@
         <v>2107</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2071</v>
@@ -18956,7 +18956,8 @@
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="7.91666666666667" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="31.125" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
@@ -19595,7 +19596,7 @@
         <v>2157</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2127</v>
@@ -25673,7 +25674,7 @@
         <v>776</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>507</v>
@@ -33599,7 +33600,7 @@
         <v>1059</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>853</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8037,10 +8037,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -8060,22 +8060,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8102,9 +8086,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8134,8 +8155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8157,31 +8179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8216,7 +8216,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8228,91 +8372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8324,73 +8390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8412,11 +8412,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8436,15 +8434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8456,6 +8445,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8484,15 +8493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8513,10 +8513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8525,37 +8525,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8564,94 +8561,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -38834,7 +38834,7 @@
         <v>2562</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2309</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8037,10 +8037,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -8066,23 +8066,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8094,7 +8088,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8123,19 +8164,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8157,41 +8189,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8216,13 +8216,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8234,31 +8246,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8276,7 +8294,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8288,37 +8324,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8330,19 +8354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8354,49 +8378,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8419,6 +8419,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -8434,6 +8458,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8445,26 +8480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8492,31 +8507,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8525,133 +8525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9365,7 +9365,7 @@
         <v>43</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -36556,7 +36556,7 @@
         <v>2449</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>2309</v>
@@ -37392,7 +37392,7 @@
         <v>2494</v>
       </c>
       <c r="D57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>2309</v>
@@ -44021,7 +44021,7 @@
         <v>1358</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>1141</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8037,10 +8037,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -8051,8 +8051,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8066,22 +8091,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8096,33 +8106,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8133,9 +8119,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8143,7 +8128,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8164,13 +8149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -8179,9 +8157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8189,7 +8166,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8216,7 +8216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8228,13 +8240,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8246,13 +8294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8264,103 +8306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8378,7 +8330,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8390,13 +8396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8407,15 +8407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8458,13 +8449,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8486,24 +8490,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8513,10 +8513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8525,133 +8525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11433,7 +11433,7 @@
         <v>238</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E56" t="s">
         <v>16</v>
@@ -30872,7 +30872,7 @@
         <v>905</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>853</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8051,8 +8051,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8067,78 +8157,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8150,15 +8172,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8173,25 +8188,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8216,13 +8216,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8240,37 +8312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8282,19 +8330,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8312,19 +8378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8336,67 +8390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8407,45 +8407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8468,7 +8429,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8490,20 +8501,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8513,10 +8513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8525,133 +8525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10509,7 +10509,7 @@
         <v>156</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -10729,7 +10729,7 @@
         <v>176</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -10949,7 +10949,7 @@
         <v>197</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -13105,7 +13105,7 @@
         <v>393</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>16</v>
@@ -23034,7 +23034,7 @@
         <v>597</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>507</v>
@@ -23430,7 +23430,7 @@
         <v>622</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>507</v>
@@ -23518,7 +23518,7 @@
         <v>629</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>507</v>
@@ -25190,7 +25190,7 @@
         <v>738</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>507</v>
@@ -29069,7 +29069,7 @@
         <v>2343</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>2309</v>
@@ -33820,7 +33820,7 @@
         <v>1071</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>853</v>
@@ -35368,7 +35368,7 @@
         <v>2394</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>2309</v>
@@ -35720,7 +35720,7 @@
         <v>2410</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>2309</v>
@@ -42437,7 +42437,7 @@
         <v>1267</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>1141</v>
@@ -43185,7 +43185,7 @@
         <v>1313</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>1141</v>
@@ -45508,7 +45508,7 @@
         <v>1436</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>1420</v>
@@ -45948,7 +45948,7 @@
         <v>1461</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>1420</v>
@@ -46036,7 +46036,7 @@
         <v>1466</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>1420</v>
@@ -50823,7 +50823,7 @@
         <v>1733</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1714</v>
@@ -53312,7 +53312,7 @@
         <v>1855</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1850</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8058,32 +8058,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8103,24 +8079,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8134,24 +8095,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8171,9 +8147,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8188,7 +8188,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8216,37 +8216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8264,13 +8246,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8282,13 +8378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8300,103 +8390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8407,45 +8407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8466,6 +8427,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -8473,13 +8454,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8498,25 +8507,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8525,133 +8525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -36908,7 +36908,7 @@
         <v>2465</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>2309</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8059,7 +8059,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8072,8 +8103,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8088,6 +8128,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -8095,31 +8143,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8147,24 +8172,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8173,25 +8189,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8222,7 +8222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8234,7 +8234,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8246,37 +8276,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8294,7 +8324,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8306,7 +8354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8318,37 +8384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8360,43 +8396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8407,50 +8407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8493,6 +8449,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8507,16 +8492,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8525,133 +8525,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10245,7 +10245,7 @@
         <v>127</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -10641,7 +10641,7 @@
         <v>171</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -11125,7 +11125,7 @@
         <v>213</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -15326,7 +15326,7 @@
         <v>1942</v>
       </c>
       <c r="D18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>1906</v>
@@ -16936,7 +16936,7 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2017</v>
@@ -22286,7 +22286,7 @@
         <v>546</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>507</v>
@@ -23914,7 +23914,7 @@
         <v>659</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>507</v>
@@ -24134,7 +24134,7 @@
         <v>675</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>507</v>
@@ -24178,7 +24178,7 @@
         <v>678</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>507</v>
@@ -24398,7 +24398,7 @@
         <v>693</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>507</v>
@@ -24618,7 +24618,7 @@
         <v>705</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>507</v>
@@ -25058,7 +25058,7 @@
         <v>730</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>507</v>
@@ -31092,7 +31092,7 @@
         <v>918</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>853</v>
@@ -31268,7 +31268,7 @@
         <v>928</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>853</v>
@@ -31708,7 +31708,7 @@
         <v>950</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>853</v>
@@ -36776,7 +36776,7 @@
         <v>2459</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>2309</v>
@@ -37216,7 +37216,7 @@
         <v>2486</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>2309</v>
@@ -37568,7 +37568,7 @@
         <v>2502</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>2309</v>
@@ -38746,7 +38746,7 @@
         <v>2558</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>2309</v>
@@ -39274,7 +39274,7 @@
         <v>2583</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>2309</v>
@@ -45684,7 +45684,7 @@
         <v>1445</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>1420</v>
@@ -45816,7 +45816,7 @@
         <v>1455</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>1420</v>
@@ -46828,7 +46828,7 @@
         <v>1516</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>1420</v>
@@ -47048,7 +47048,7 @@
         <v>1529</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>1420</v>
@@ -47488,7 +47488,7 @@
         <v>1554</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>1420</v>
@@ -47620,7 +47620,7 @@
         <v>1561</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>1420</v>
@@ -47928,7 +47928,7 @@
         <v>1577</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>1420</v>
@@ -48280,7 +48280,7 @@
         <v>1603</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>1420</v>
@@ -51490,7 +51490,7 @@
         <v>1767</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>1760</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8042,7 +8042,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8052,7 +8052,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8066,7 +8095,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8080,8 +8109,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8097,7 +8141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8105,7 +8149,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8121,7 +8165,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8135,61 +8195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8216,49 +8223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8276,13 +8247,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8300,73 +8391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8378,25 +8403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8428,6 +8435,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -8448,75 +8514,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8525,142 +8532,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -45287,8 +45295,8 @@
       <c r="C4" t="s">
         <v>1425</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" s="5">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>1420</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="834"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="834" firstSheet="19" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="W" sheetId="1" r:id="rId1"/>
@@ -8043,9 +8043,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -8065,14 +8065,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8080,7 +8080,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8094,32 +8133,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8127,36 +8149,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8178,16 +8170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8195,14 +8179,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8229,7 +8229,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8241,7 +8361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8253,55 +8397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8313,103 +8409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8423,27 +8423,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -8454,30 +8443,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8506,17 +8471,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8526,10 +8526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8538,133 +8538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8996,7 +8996,7 @@
   <sheetPr/>
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11447,7 +11447,7 @@
         <v>238</v>
       </c>
       <c r="D56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>16</v>
@@ -13647,7 +13647,7 @@
         <v>436</v>
       </c>
       <c r="D106" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>16</v>
@@ -18268,7 +18268,7 @@
         <v>2092</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>2073</v>
@@ -20340,7 +20340,7 @@
         <v>2191</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>2178</v>
@@ -22551,7 +22551,7 @@
         <v>563</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>510</v>
@@ -32721,7 +32721,7 @@
         <v>1008</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>856</v>
@@ -34942,7 +34942,7 @@
   <sheetPr/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -35897,7 +35897,7 @@
         <v>2418</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>2311</v>
@@ -45597,7 +45597,7 @@
         <v>1441</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>1423</v>
@@ -46829,7 +46829,7 @@
         <v>1517</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>1423</v>
@@ -50912,7 +50912,7 @@
         <v>1738</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1717</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="834" firstSheet="19" activeTab="29"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="W" sheetId="1" r:id="rId1"/>
@@ -8043,9 +8043,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -8080,7 +8080,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8094,19 +8094,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8117,54 +8116,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8179,7 +8132,70 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8187,22 +8203,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8235,7 +8235,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8247,109 +8385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8367,49 +8409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8420,6 +8420,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8441,67 +8500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8526,10 +8526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8538,106 +8538,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8646,25 +8655,16 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8996,7 +8996,7 @@
   <sheetPr/>
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -24047,7 +24047,7 @@
         <v>667</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>510</v>
@@ -25367,7 +25367,7 @@
         <v>751</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>510</v>
@@ -27162,7 +27162,7 @@
         <v>2256</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2254</v>
@@ -31885,7 +31885,7 @@
         <v>959</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>856</v>
@@ -34942,7 +34942,7 @@
   <sheetPr/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -35457,7 +35457,7 @@
         <v>2398</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>2311</v>
@@ -36513,7 +36513,7 @@
         <v>2447</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>2311</v>
@@ -37129,7 +37129,7 @@
         <v>2481</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>2311</v>
@@ -40634,7 +40634,7 @@
         <v>1171</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>1144</v>
@@ -45817,7 +45817,7 @@
         <v>1455</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>1423</v>
@@ -51491,7 +51491,7 @@
         <v>1767</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>1762</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="834"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="834" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="W" sheetId="1" r:id="rId1"/>
@@ -8043,9 +8043,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -8078,32 +8078,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8117,14 +8101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8138,9 +8115,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8155,33 +8161,34 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8193,18 +8200,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8229,37 +8229,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8277,7 +8277,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8289,31 +8355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8325,7 +8373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8337,43 +8385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8385,25 +8403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8423,6 +8423,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -8437,8 +8452,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8458,17 +8473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8497,15 +8506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -8526,10 +8526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8538,133 +8538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8996,7 +8996,7 @@
   <sheetPr/>
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -20001,7 +20001,7 @@
   <sheetPr/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -20648,7 +20648,7 @@
         <v>2208</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>2178</v>
@@ -24355,7 +24355,7 @@
         <v>691</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>510</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="834" activeTab="14"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="W" sheetId="1" r:id="rId1"/>
@@ -8044,8 +8044,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -8078,18 +8078,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8107,11 +8100,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8124,7 +8125,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8145,40 +8146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8192,6 +8162,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -8200,11 +8177,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8241,25 +8241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8271,115 +8259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8397,13 +8283,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8423,27 +8423,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8475,18 +8458,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8502,6 +8493,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8526,10 +8526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8538,133 +8538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8996,7 +8996,7 @@
   <sheetPr/>
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9511,7 +9511,7 @@
         <v>53</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -13647,7 +13647,7 @@
         <v>436</v>
       </c>
       <c r="D106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>16</v>
@@ -14666,8 +14666,8 @@
       <c r="C2" t="s">
         <v>1907</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1908</v>
@@ -15063,7 +15063,7 @@
         <v>1927</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>1908</v>
@@ -15862,8 +15862,8 @@
       <c r="C2" t="s">
         <v>1966</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1967</v>
@@ -17959,8 +17959,8 @@
       <c r="C2" t="s">
         <v>2072</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>2073</v>
@@ -19068,8 +19068,8 @@
       <c r="C2" t="s">
         <v>2128</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>2129</v>
@@ -20001,7 +20001,7 @@
   <sheetPr/>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -20075,8 +20075,8 @@
       <c r="C2" t="s">
         <v>2177</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>2178</v>
@@ -29246,7 +29246,7 @@
         <v>2351</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2311</v>
@@ -35721,7 +35721,7 @@
         <v>2410</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>2311</v>
@@ -38879,7 +38879,7 @@
         <v>2564</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2311</v>
@@ -39231,7 +39231,7 @@
         <v>2580</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>2311</v>
@@ -48017,7 +48017,7 @@
         <v>1585</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>1423</v>
@@ -50471,8 +50471,8 @@
       <c r="C2" t="s">
         <v>1716</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1717</v>
@@ -51402,8 +51402,8 @@
       <c r="C2" t="s">
         <v>1761</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1762</v>
@@ -52290,8 +52290,8 @@
       <c r="C2" t="s">
         <v>1805</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1806</v>
@@ -53268,8 +53268,8 @@
       <c r="C2" t="s">
         <v>1851</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1852</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8065,24 +8065,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8100,11 +8100,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8116,8 +8116,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8125,7 +8141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8146,9 +8162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8162,29 +8185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -8193,16 +8193,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8229,19 +8229,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8253,13 +8283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8271,7 +8301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8283,25 +8313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8319,31 +8331,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8355,19 +8373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8379,13 +8391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8397,19 +8403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8420,65 +8420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8500,8 +8441,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8520,16 +8470,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8538,133 +8538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -31049,7 +31049,7 @@
         <v>914</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>856</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8065,6 +8065,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8072,7 +8086,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8087,32 +8140,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8132,16 +8170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8163,37 +8194,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -8201,10 +8201,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8229,7 +8229,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8241,25 +8295,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8271,43 +8337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8325,61 +8385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8391,25 +8409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8420,6 +8420,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8440,9 +8464,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8470,66 +8520,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8538,133 +8538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13999,7 +13999,7 @@
         <v>466</v>
       </c>
       <c r="D114" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>16</v>
@@ -17817,7 +17817,7 @@
         <v>2070</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>2019</v>
@@ -39011,7 +39011,7 @@
         <v>2570</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>2311</v>
@@ -39055,7 +39055,7 @@
         <v>2572</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>2311</v>
@@ -39143,7 +39143,7 @@
         <v>2576</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>2311</v>
@@ -39187,7 +39187,7 @@
         <v>2578</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>2311</v>
@@ -39407,7 +39407,7 @@
         <v>2589</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>2311</v>
@@ -39495,7 +39495,7 @@
         <v>2593</v>
       </c>
       <c r="D31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>2311</v>
@@ -39539,7 +39539,7 @@
         <v>2595</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>2311</v>
@@ -39583,7 +39583,7 @@
         <v>2597</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>2311</v>
@@ -39803,7 +39803,7 @@
         <v>2610</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>2311</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8065,7 +8065,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8078,6 +8078,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -8086,14 +8087,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8107,14 +8124,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -8123,9 +8132,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8133,22 +8163,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8170,41 +8185,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8229,13 +8229,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8253,163 +8409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8420,45 +8420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8476,23 +8437,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8520,16 +8466,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8538,133 +8538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17157,7 +17157,7 @@
         <v>2034</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>2019</v>
@@ -28674,7 +28674,7 @@
         <v>2318</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>2311</v>
@@ -29378,7 +29378,7 @@
         <v>2357</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>2311</v>
@@ -36645,7 +36645,7 @@
         <v>2453</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>2311</v>
@@ -37525,7 +37525,7 @@
         <v>2500</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>2311</v>
@@ -40986,7 +40986,7 @@
         <v>1192</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>1144</v>
@@ -46037,7 +46037,7 @@
         <v>1466</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>1423</v>
@@ -50305,7 +50305,7 @@
         <v>1712</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
         <v>1423</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8178" uniqueCount="2617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8186" uniqueCount="2620">
   <si>
     <t>no.</t>
   </si>
@@ -5251,6 +5251,15 @@
     <t>秩序贤者</t>
   </si>
   <si>
+    <t>Esika's Chariot</t>
+  </si>
+  <si>
+    <t>埃西卡的战车</t>
+  </si>
+  <si>
+    <t>Legendary Artifact — Vehicle</t>
+  </si>
+  <si>
     <t>Tundra</t>
   </si>
   <si>
@@ -8043,10 +8052,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -8078,16 +8087,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8102,7 +8103,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8132,8 +8133,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8154,32 +8180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8192,17 +8210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8229,37 +8238,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8271,19 +8280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8301,19 +8304,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8325,13 +8346,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8343,7 +8388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8355,61 +8412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8420,26 +8429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8467,6 +8456,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8482,17 +8486,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8515,8 +8524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8526,10 +8535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8538,133 +8547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14661,19 +14670,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="C2" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F2" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -14705,16 +14714,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="C3" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>1911</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1908</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -14749,16 +14758,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="C4" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -14793,16 +14802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="C5" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -14837,16 +14846,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="C6" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -14881,16 +14890,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="C7" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -14925,19 +14934,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="C8" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="D8">
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F8" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="G8" t="s">
         <v>671</v>
@@ -14969,16 +14978,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="C9" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F9" t="s">
         <v>1578</v>
@@ -15013,16 +15022,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="C10" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F10" t="s">
         <v>128</v>
@@ -15057,19 +15066,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="C11" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F11" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="G11" t="s">
         <v>137</v>
@@ -15101,19 +15110,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="C12" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F12" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="G12" t="s">
         <v>137</v>
@@ -15145,16 +15154,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="C13" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>128</v>
@@ -15189,16 +15198,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="C14" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>195</v>
@@ -15233,28 +15242,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="C15" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="I15" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="J15" s="4">
         <v>39933</v>
@@ -15277,16 +15286,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="C16" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>128</v>
@@ -15321,16 +15330,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="C17" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>128</v>
@@ -15365,16 +15374,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="C18" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>302</v>
@@ -15409,19 +15418,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="C19" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>1013</v>
@@ -15453,16 +15462,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="C20" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>296</v>
@@ -15497,19 +15506,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="C21" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>371</v>
@@ -15541,19 +15550,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="C22" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>1079</v>
@@ -15585,19 +15594,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="C23" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>426</v>
@@ -15629,16 +15638,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="C24" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
@@ -15673,19 +15682,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="C25" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>462</v>
@@ -15717,16 +15726,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="C26" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="F26" t="s">
         <v>128</v>
@@ -15857,19 +15866,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="C2" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F2" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -15901,28 +15910,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="C3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>1970</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1967</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H3" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I3" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J3" s="3">
         <v>37046</v>
@@ -15945,28 +15954,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="C4" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H4" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I4" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J4" s="3">
         <v>37046</v>
@@ -15989,28 +15998,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="C5" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H5" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I5" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J5" s="3">
         <v>37046</v>
@@ -16033,28 +16042,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="C6" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F6" t="s">
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H6" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I6" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J6" s="3">
         <v>37046</v>
@@ -16077,28 +16086,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="C7" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="H7" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="I7" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="J7" s="3">
         <v>38751</v>
@@ -16121,28 +16130,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="C8" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="D8">
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F8" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="G8" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="H8" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="I8" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="J8" s="3">
         <v>38751</v>
@@ -16165,16 +16174,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="C9" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>128</v>
@@ -16209,19 +16218,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C10" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>148</v>
@@ -16253,16 +16262,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="C11" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -16297,16 +16306,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="C12" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
@@ -16341,19 +16350,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="C13" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>240</v>
@@ -16385,16 +16394,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>128</v>
@@ -16429,16 +16438,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>128</v>
@@ -16473,16 +16482,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
@@ -16517,16 +16526,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>976</v>
@@ -16561,16 +16570,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>35</v>
@@ -16605,16 +16614,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>128</v>
@@ -16649,16 +16658,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1112</v>
@@ -16693,16 +16702,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>239</v>
@@ -16737,19 +16746,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>462</v>
@@ -16781,16 +16790,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -16931,28 +16940,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F2" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="G2" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="H2" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="I2" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="J2" s="3">
         <v>34246</v>
@@ -16975,28 +16984,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F3" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="G3" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H3" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I3" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J3" s="3">
         <v>37046</v>
@@ -17019,28 +17028,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="C4" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F4" t="s">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H4" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I4" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J4" s="3">
         <v>37046</v>
@@ -17063,28 +17072,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="C5" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="H5" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="I5" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="J5" s="3">
         <v>38751</v>
@@ -17107,28 +17116,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="C6" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="D6">
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F6" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="G6" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="H6" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="I6" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="J6" s="3">
         <v>38751</v>
@@ -17151,16 +17160,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="C7" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>128</v>
@@ -17195,19 +17204,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="C8" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1013</v>
@@ -17239,16 +17248,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="C9" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
@@ -17283,19 +17292,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="C10" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>752</v>
@@ -17327,19 +17336,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="C11" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>286</v>
@@ -17371,16 +17380,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="C12" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>128</v>
@@ -17415,19 +17424,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="C13" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>358</v>
@@ -17459,16 +17468,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="C14" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>128</v>
@@ -17503,19 +17512,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>2053</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2054</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>2050</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>1365</v>
@@ -17547,16 +17556,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="C16" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>38</v>
@@ -17591,19 +17600,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="C17" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>419</v>
@@ -17635,16 +17644,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="C18" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>35</v>
@@ -17679,16 +17688,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="C19" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>128</v>
@@ -17723,19 +17732,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="C20" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>444</v>
@@ -17767,19 +17776,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="C21" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>462</v>
@@ -17811,16 +17820,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="C22" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F22" t="s">
         <v>128</v>
@@ -17954,19 +17963,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="C2" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F2" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -17998,28 +18007,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="C3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>2076</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2073</v>
       </c>
       <c r="F3" t="s">
         <v>1431</v>
       </c>
       <c r="G3" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="H3" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="I3" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="J3" s="3">
         <v>34547</v>
@@ -18042,28 +18051,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="C4" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H4" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I4" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J4" s="3">
         <v>37046</v>
@@ -18086,28 +18095,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F5" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="G5" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H5" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I5" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J5" s="3">
         <v>37046</v>
@@ -18130,28 +18139,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="C6" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F6" t="s">
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H6" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I6" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J6" s="3">
         <v>37046</v>
@@ -18174,16 +18183,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="C7" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -18218,19 +18227,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="C8" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="D8">
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F8" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="G8" t="s">
         <v>671</v>
@@ -18262,16 +18271,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="C9" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>128</v>
@@ -18306,28 +18315,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="C10" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="I10" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="J10" s="4">
         <v>39933</v>
@@ -18350,16 +18359,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="C11" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1525</v>
@@ -18394,16 +18403,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="C12" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>128</v>
@@ -18438,16 +18447,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="C13" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
@@ -18482,19 +18491,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="C14" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1013</v>
@@ -18526,16 +18535,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="C15" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1474</v>
@@ -18570,16 +18579,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="C16" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>128</v>
@@ -18614,16 +18623,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="C17" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>128</v>
@@ -18658,16 +18667,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="C18" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -18702,19 +18711,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="C19" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>1079</v>
@@ -18746,16 +18755,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="C20" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>35</v>
@@ -18790,16 +18799,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="C21" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>128</v>
@@ -18834,19 +18843,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="C22" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>462</v>
@@ -18878,19 +18887,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="C23" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F23" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="G23" t="s">
         <v>462</v>
@@ -18922,16 +18931,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="C24" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>128</v>
@@ -19063,19 +19072,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="C2" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F2" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -19107,28 +19116,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="C3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>2132</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2129</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H3" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I3" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J3" s="3">
         <v>37046</v>
@@ -19151,16 +19160,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="C4" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -19195,16 +19204,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="C5" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -19239,19 +19248,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="C6" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="D6">
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F6" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="G6" t="s">
         <v>671</v>
@@ -19283,19 +19292,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="C7" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F7" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="G7" t="s">
         <v>142</v>
@@ -19327,16 +19336,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="C8" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>128</v>
@@ -19371,19 +19380,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="C9" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>148</v>
@@ -19415,16 +19424,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="C10" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
@@ -19459,19 +19468,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>752</v>
@@ -19503,16 +19512,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="C12" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>128</v>
@@ -19547,16 +19556,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="C13" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>192</v>
@@ -19591,19 +19600,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="C14" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>331</v>
@@ -19635,16 +19644,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="C15" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>128</v>
@@ -19679,16 +19688,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="C16" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>192</v>
@@ -19723,16 +19732,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="C17" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>35</v>
@@ -19767,16 +19776,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="C18" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>128</v>
@@ -19811,16 +19820,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="C19" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>195</v>
@@ -19855,19 +19864,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="C20" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>462</v>
@@ -19899,19 +19908,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="C21" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>462</v>
@@ -19943,16 +19952,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="C22" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>128</v>
@@ -20070,19 +20079,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="C2" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F2" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -20114,28 +20123,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="C3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>2181</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2178</v>
       </c>
       <c r="F3" t="s">
         <v>1553</v>
       </c>
       <c r="G3" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H3" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I3" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J3" s="3">
         <v>37046</v>
@@ -20158,28 +20167,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="C4" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F4" t="s">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="H4" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="I4" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="J4" s="3">
         <v>37046</v>
@@ -20202,16 +20211,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="C5" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -20246,19 +20255,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="C6" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="D6">
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F6" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="G6" t="s">
         <v>1507</v>
@@ -20290,16 +20299,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="C7" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>128</v>
@@ -20334,19 +20343,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="C8" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1581</v>
@@ -20378,16 +20387,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="C9" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>128</v>
@@ -20422,19 +20431,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="C10" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>276</v>
@@ -20466,19 +20475,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="C11" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>315</v>
@@ -20510,16 +20519,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="C12" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>128</v>
@@ -20554,16 +20563,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="C13" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>128</v>
@@ -20598,16 +20607,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="C14" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1620</v>
@@ -20642,16 +20651,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="C15" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
@@ -20686,19 +20695,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="C16" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1085</v>
@@ -20730,19 +20739,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="C17" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>1085</v>
@@ -20774,16 +20783,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="C18" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>35</v>
@@ -20818,16 +20827,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="C19" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>128</v>
@@ -20862,19 +20871,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="C20" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>444</v>
@@ -20906,19 +20915,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="C21" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>451</v>
@@ -20950,19 +20959,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="C22" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>462</v>
@@ -20994,16 +21003,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="C23" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>128</v>
@@ -21121,19 +21130,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="C2" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>917</v>
@@ -21165,28 +21174,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="C3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2231</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="I3" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="J3" s="4">
         <v>39933</v>
@@ -21209,19 +21218,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="C4" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1365</v>
@@ -21336,19 +21345,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="C2" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>917</v>
@@ -21380,19 +21389,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="C3" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>412</v>
@@ -21507,19 +21516,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="C2" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>917</v>
@@ -21551,16 +21560,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="C3" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1283</v>
@@ -21675,19 +21684,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="C2" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="F2" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="G2" t="s">
         <v>917</v>
@@ -27112,19 +27121,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="C2" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>917</v>
@@ -27156,16 +27165,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="C3" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1482</v>
@@ -27283,19 +27292,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="C2" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="F2" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="G2" t="s">
         <v>297</v>
@@ -27327,19 +27336,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="C3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>2262</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2259</v>
-      </c>
       <c r="F3" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="G3" t="s">
         <v>462</v>
@@ -27450,16 +27459,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="C2" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="F2" t="s">
         <v>302</v>
@@ -27494,19 +27503,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="C3" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="F3" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="G3" t="s">
         <v>462</v>
@@ -27617,19 +27626,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="C2" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="F2" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="G2" t="s">
         <v>297</v>
@@ -27661,19 +27670,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="C3" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="F3" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="G3" t="s">
         <v>351</v>
@@ -27705,19 +27714,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="C4" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="F4" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="G4" t="s">
         <v>462</v>
@@ -27828,19 +27837,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="C2" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="F2" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="G2" t="s">
         <v>297</v>
@@ -27872,19 +27881,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="C3" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="F3" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="G3" t="s">
         <v>462</v>
@@ -27995,16 +28004,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="C2" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1024</v>
@@ -28039,19 +28048,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="C3" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>462</v>
@@ -28159,19 +28168,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="C2" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="F2" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="G2" t="s">
         <v>474</v>
@@ -28281,19 +28290,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="C2" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="F2" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="G2" t="s">
         <v>157</v>
@@ -28325,19 +28334,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="C3" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>2300</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2297</v>
-      </c>
       <c r="F3" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="G3" t="s">
         <v>792</v>
@@ -28369,19 +28378,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="C4" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="F4" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="G4" t="s">
         <v>817</v>
@@ -28413,19 +28422,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="C5" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="F5" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="G5" t="s">
         <v>462</v>
@@ -28457,16 +28466,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="C6" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="F6" t="s">
         <v>502</v>
@@ -28580,28 +28589,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="C2" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F2" t="s">
         <v>780</v>
       </c>
       <c r="G2" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="H2" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="I2" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="J2" s="3">
         <v>34397</v>
@@ -28624,16 +28633,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="C3" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F3" t="s">
         <v>780</v>
@@ -28668,19 +28677,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="C4" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F4" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="G4" t="s">
         <v>649</v>
@@ -28712,28 +28721,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="C5" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F5" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="G5" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="H5" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="I5" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="J5" s="3">
         <v>38023</v>
@@ -28756,19 +28765,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="C6" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F6" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="G6" t="s">
         <v>181</v>
@@ -28800,19 +28809,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="C7" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F7" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="G7" t="s">
         <v>187</v>
@@ -28844,19 +28853,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="C8" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F8" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="G8" t="s">
         <v>187</v>
@@ -28888,19 +28897,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F9" t="s">
         <v>2332</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2333</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2311</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2329</v>
       </c>
       <c r="G9" t="s">
         <v>187</v>
@@ -28932,19 +28941,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="C10" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F10" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="G10" t="s">
         <v>986</v>
@@ -28976,19 +28985,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="C11" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F11" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="G11" t="s">
         <v>986</v>
@@ -29020,19 +29029,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="C12" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F12" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="G12" t="s">
         <v>207</v>
@@ -29064,16 +29073,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="C13" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F13" t="s">
         <v>742</v>
@@ -29108,16 +29117,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="C14" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F14" t="s">
         <v>780</v>
@@ -29152,19 +29161,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="C15" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F15" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="G15" t="s">
         <v>320</v>
@@ -29196,16 +29205,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="C16" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>325</v>
@@ -29240,16 +29249,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="C17" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>325</v>
@@ -29284,19 +29293,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="C18" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>341</v>
@@ -29328,16 +29337,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="C19" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>739</v>
@@ -29372,16 +29381,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="C20" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>780</v>
@@ -29416,19 +29425,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="C21" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>1365</v>
@@ -29460,19 +29469,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="C22" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F22" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="G22" t="s">
         <v>426</v>
@@ -29504,19 +29513,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="C23" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>444</v>
@@ -29644,19 +29653,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="C2" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F2" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="G2" t="s">
         <v>218</v>
@@ -29688,19 +29697,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="C3" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F3" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="G3" t="s">
         <v>297</v>
@@ -29732,19 +29741,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="C4" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F4" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="G4" t="s">
         <v>399</v>
@@ -35011,16 +35020,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="C2" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -35055,16 +35064,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="C3" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -35099,16 +35108,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="C4" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -35143,16 +35152,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="C5" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -35187,16 +35196,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="C6" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -35231,16 +35240,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="C7" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -35275,16 +35284,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="C8" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -35319,28 +35328,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="C9" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="H9" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="I9" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="J9" s="3">
         <v>34397</v>
@@ -35363,28 +35372,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="C10" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="H10" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="I10" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="J10" s="3">
         <v>34790</v>
@@ -35407,16 +35416,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="C11" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -35451,16 +35460,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="C12" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
@@ -35495,16 +35504,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="C13" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
@@ -35539,16 +35548,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="C14" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
@@ -35583,16 +35592,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="C15" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -35627,16 +35636,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
       <c r="C16" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -35671,16 +35680,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="C17" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F17" t="s">
         <v>35</v>
@@ -35715,16 +35724,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="C18" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -35759,16 +35768,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="C19" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F19" t="s">
         <v>35</v>
@@ -35803,16 +35812,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="C20" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F20" t="s">
         <v>35</v>
@@ -35847,16 +35856,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="C21" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F21" t="s">
         <v>35</v>
@@ -35891,16 +35900,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="C22" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F22" t="s">
         <v>35</v>
@@ -35935,16 +35944,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="C23" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F23" t="s">
         <v>35</v>
@@ -35979,16 +35988,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="C24" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F24" t="s">
         <v>35</v>
@@ -36023,16 +36032,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="C25" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F25" t="s">
         <v>35</v>
@@ -36067,16 +36076,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="C26" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F26" t="s">
         <v>35</v>
@@ -36111,16 +36120,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="C27" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F27" t="s">
         <v>35</v>
@@ -36155,16 +36164,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="C28" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F28" t="s">
         <v>35</v>
@@ -36199,16 +36208,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="C29" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F29" t="s">
         <v>35</v>
@@ -36243,19 +36252,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="C30" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F30" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G30" t="s">
         <v>649</v>
@@ -36287,16 +36296,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="C31" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
@@ -36331,16 +36340,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="C32" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
@@ -36375,19 +36384,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="C33" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F33" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G33" t="s">
         <v>649</v>
@@ -36419,16 +36428,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="C34" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F34" t="s">
         <v>1090</v>
@@ -36463,28 +36472,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="C35" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F35" t="s">
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="H35" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="I35" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="J35" s="3">
         <v>38023</v>
@@ -36507,28 +36516,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="C36" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F36" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G36" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="H36" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="I36" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="J36" s="3">
         <v>38023</v>
@@ -36551,28 +36560,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="C37" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F37" t="s">
         <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="H37" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="I37" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="J37" s="3">
         <v>38023</v>
@@ -36595,28 +36604,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="C38" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F38" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G38" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="H38" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="I38" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="J38" s="3">
         <v>38023</v>
@@ -36639,28 +36648,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="C39" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F39" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G39" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="H39" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="I39" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="J39" s="3">
         <v>38023</v>
@@ -36683,16 +36692,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="C40" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F40" t="s">
         <v>35</v>
@@ -36727,16 +36736,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="C41" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F41" t="s">
         <v>35</v>
@@ -36771,16 +36780,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="C42" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F42" t="s">
         <v>35</v>
@@ -36815,19 +36824,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="C43" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F43" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G43" t="s">
         <v>658</v>
@@ -36859,16 +36868,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="C44" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F44" t="s">
         <v>35</v>
@@ -36903,16 +36912,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="C45" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F45" t="s">
         <v>35</v>
@@ -36947,16 +36956,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
       <c r="C46" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F46" t="s">
         <v>35</v>
@@ -36991,16 +37000,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="C47" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F47" t="s">
         <v>35</v>
@@ -37035,28 +37044,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
       <c r="C48" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F48" t="s">
         <v>1392</v>
       </c>
       <c r="G48" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="H48" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="I48" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="J48" s="3">
         <v>38387</v>
@@ -37079,28 +37088,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="C49" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F49" t="s">
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="H49" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="I49" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="J49" s="3">
         <v>38506</v>
@@ -37123,19 +37132,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="C50" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F50" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="G50" t="s">
         <v>1513</v>
@@ -37167,16 +37176,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="C51" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F51" t="s">
         <v>35</v>
@@ -37211,16 +37220,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="C52" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F52" t="s">
         <v>35</v>
@@ -37255,16 +37264,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="C53" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F53" t="s">
         <v>35</v>
@@ -37299,16 +37308,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="C54" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F54" t="s">
         <v>35</v>
@@ -37343,19 +37352,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="C55" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F55" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G55" t="s">
         <v>986</v>
@@ -37387,19 +37396,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="C56" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F56" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G56" t="s">
         <v>986</v>
@@ -37431,19 +37440,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="C57" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F57" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G57" t="s">
         <v>207</v>
@@ -37475,19 +37484,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="C58" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F58" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G58" t="s">
         <v>218</v>
@@ -37519,19 +37528,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="C59" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F59" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G59" t="s">
         <v>218</v>
@@ -37563,16 +37572,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="C60" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F60" t="s">
         <v>35</v>
@@ -37607,16 +37616,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="C61" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F61" t="s">
         <v>35</v>
@@ -37651,19 +37660,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="C62" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F62" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="G62" t="s">
         <v>358</v>
@@ -37695,16 +37704,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="C63" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F63" t="s">
         <v>35</v>
@@ -37739,28 +37748,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="C64" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F64" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G64" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="H64" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="I64" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="J64" s="3">
         <v>42972</v>
@@ -37783,16 +37792,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="C65" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F65" t="s">
         <v>35</v>
@@ -37827,16 +37836,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="C66" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F66" t="s">
         <v>35</v>
@@ -37871,16 +37880,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="C67" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F67" t="s">
         <v>35</v>
@@ -37915,19 +37924,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="C68" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F68" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G68" t="s">
         <v>426</v>
@@ -37959,19 +37968,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="C69" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F69" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G69" t="s">
         <v>426</v>
@@ -38003,16 +38012,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="C70" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F70" t="s">
         <v>35</v>
@@ -38047,16 +38056,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="C71" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F71" t="s">
         <v>1392</v>
@@ -38091,16 +38100,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="C72" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F72" t="s">
         <v>35</v>
@@ -38213,28 +38222,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="C2" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F2" t="s">
         <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="H2" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="I2" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="J2" s="3">
         <v>34320</v>
@@ -38257,28 +38266,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="C3" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="H3" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="I3" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="J3" s="3">
         <v>34320</v>
@@ -38301,34 +38310,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="C4" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F4" t="s">
         <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="H4" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="I4" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="J4" s="3">
         <v>34397</v>
       </c>
       <c r="K4" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
@@ -38345,34 +38354,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="C5" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F5" t="s">
         <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="H5" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="I5" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="J5" s="3">
         <v>34397</v>
       </c>
       <c r="K5" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
@@ -38389,28 +38398,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="C6" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F6" t="s">
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="H6" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="I6" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="J6" s="3">
         <v>34547</v>
@@ -38433,16 +38442,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="C7" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F7" t="s">
         <v>128</v>
@@ -38477,16 +38486,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="C8" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F8" t="s">
         <v>128</v>
@@ -38521,16 +38530,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="C9" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F9" t="s">
         <v>128</v>
@@ -38565,16 +38574,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="C10" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F10" t="s">
         <v>128</v>
@@ -38609,16 +38618,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="C11" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F11" t="s">
         <v>128</v>
@@ -38653,16 +38662,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="C12" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F12" t="s">
         <v>128</v>
@@ -38697,16 +38706,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="C13" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F13" t="s">
         <v>128</v>
@@ -38741,16 +38750,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="C14" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F14" t="s">
         <v>128</v>
@@ -38785,16 +38794,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="C15" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F15" t="s">
         <v>128</v>
@@ -38829,16 +38838,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="C16" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F16" t="s">
         <v>128</v>
@@ -38873,16 +38882,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="C17" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>128</v>
@@ -38917,16 +38926,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="C18" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>128</v>
@@ -38961,16 +38970,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="C19" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>128</v>
@@ -39005,16 +39014,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="C20" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>128</v>
@@ -39049,16 +39058,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="C21" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>128</v>
@@ -39093,16 +39102,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="C22" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>128</v>
@@ -39137,16 +39146,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="C23" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>128</v>
@@ -39181,16 +39190,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="C24" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>128</v>
@@ -39225,16 +39234,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="C25" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>128</v>
@@ -39269,19 +39278,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="C26" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>1513</v>
@@ -39313,16 +39322,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="C27" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>128</v>
@@ -39357,16 +39366,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="C28" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>128</v>
@@ -39401,16 +39410,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="C29" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>128</v>
@@ -39445,16 +39454,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="C30" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>128</v>
@@ -39489,16 +39498,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="C31" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>128</v>
@@ -39533,16 +39542,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="C32" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>128</v>
@@ -39577,16 +39586,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="C33" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>128</v>
@@ -39621,16 +39630,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="C34" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>128</v>
@@ -39665,16 +39674,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="C35" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>128</v>
@@ -39709,16 +39718,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="C36" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>128</v>
@@ -39753,28 +39762,28 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="C37" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
       <c r="I37" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="J37" s="4">
         <v>42685</v>
@@ -39797,16 +39806,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="C38" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>128</v>
@@ -39841,16 +39850,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="C39" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>128</v>
@@ -39885,16 +39894,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="C40" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>128</v>
@@ -39929,16 +39938,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="C41" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>128</v>
@@ -45168,7 +45177,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50379,6 +50388,50 @@
         <v>4</v>
       </c>
       <c r="N118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G119" t="s">
+        <v>495</v>
+      </c>
+      <c r="H119" t="s">
+        <v>496</v>
+      </c>
+      <c r="I119" t="s">
+        <v>497</v>
+      </c>
+      <c r="J119" s="3">
+        <v>44232</v>
+      </c>
+      <c r="K119">
+        <v>169</v>
+      </c>
+      <c r="L119" t="s">
+        <v>30</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+      <c r="N119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -50466,19 +50519,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="C2" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F2" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -50510,16 +50563,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="C3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>1720</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1717</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -50554,16 +50607,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="C4" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -50598,16 +50651,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="C5" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -50642,19 +50695,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C6" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="D6">
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F6" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="G6" t="s">
         <v>1507</v>
@@ -50686,16 +50739,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C7" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>128</v>
@@ -50730,16 +50783,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C8" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>128</v>
@@ -50774,16 +50827,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="C9" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>128</v>
@@ -50818,16 +50871,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="C10" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -50862,16 +50915,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="C11" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>663</v>
@@ -50906,16 +50959,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="C12" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>494</v>
@@ -50950,19 +51003,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C13" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>371</v>
@@ -50994,28 +51047,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="C14" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="I14" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="J14" s="4">
         <v>42972</v>
@@ -51038,19 +51091,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="C15" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>399</v>
@@ -51082,19 +51135,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="C16" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>419</v>
@@ -51126,16 +51179,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="C17" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>494</v>
@@ -51170,16 +51223,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="C18" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>731</v>
@@ -51214,19 +51267,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="C19" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F19" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="G19" t="s">
         <v>462</v>
@@ -51258,16 +51311,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="C20" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="F20" t="s">
         <v>128</v>
@@ -51397,19 +51450,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="C2" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F2" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -51441,16 +51494,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="C3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>1765</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1762</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -51485,16 +51538,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="C4" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -51529,19 +51582,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="C5" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F5" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="G5" t="s">
         <v>635</v>
@@ -51573,16 +51626,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="C6" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -51617,16 +51670,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="C7" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -51661,19 +51714,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="C8" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="D8">
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F8" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="G8" t="s">
         <v>671</v>
@@ -51705,16 +51758,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="C9" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>128</v>
@@ -51749,16 +51802,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="C10" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>128</v>
@@ -51793,16 +51846,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="C11" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>128</v>
@@ -51837,16 +51890,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="C12" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>716</v>
@@ -51881,28 +51934,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="C13" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="I13" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="J13" s="4">
         <v>41061</v>
@@ -51925,16 +51978,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="C14" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1141</v>
@@ -51969,19 +52022,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="C15" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>371</v>
@@ -52013,16 +52066,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="C16" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>502</v>
@@ -52057,16 +52110,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="C17" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1072</v>
@@ -52101,19 +52154,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="C18" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>462</v>
@@ -52145,16 +52198,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="C19" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="F19" t="s">
         <v>128</v>
@@ -52285,19 +52338,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C2" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F2" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -52329,16 +52382,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="C3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>1809</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1806</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -52373,16 +52426,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="C4" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
@@ -52417,16 +52470,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="C5" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -52461,19 +52514,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="C6" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="D6">
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F6" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="G6" t="s">
         <v>1507</v>
@@ -52505,16 +52558,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="C7" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>128</v>
@@ -52549,19 +52602,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="C8" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>137</v>
@@ -52593,16 +52646,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="C9" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>128</v>
@@ -52637,16 +52690,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="C10" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>128</v>
@@ -52681,16 +52734,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="C11" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1263</v>
@@ -52725,16 +52778,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="C12" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
@@ -52769,16 +52822,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="C13" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
@@ -52813,16 +52866,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="C14" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1268</v>
@@ -52857,16 +52910,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="C15" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
@@ -52901,16 +52954,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="C16" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1307</v>
@@ -52945,19 +52998,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="C17" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>371</v>
@@ -52989,19 +53042,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="C18" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>1085</v>
@@ -53033,19 +53086,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="C19" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>451</v>
@@ -53077,19 +53130,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="C20" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F20" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="G20" t="s">
         <v>462</v>
@@ -53121,16 +53174,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="C21" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>128</v>
@@ -53263,19 +53316,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="C2" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F2" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -53307,16 +53360,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="C3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>1855</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1852</v>
       </c>
       <c r="F3" t="s">
         <v>128</v>
@@ -53351,19 +53404,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="C4" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>534</v>
@@ -53395,16 +53448,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="C5" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>35</v>
@@ -53439,28 +53492,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="C6" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="I6" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="J6" s="4">
         <v>38751</v>
@@ -53483,28 +53536,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="C7" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="I7" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="J7" s="4">
         <v>38751</v>
@@ -53527,16 +53580,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="C8" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
@@ -53571,16 +53624,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="C9" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
@@ -53615,16 +53668,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="C10" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1223</v>
@@ -53659,16 +53712,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="C11" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>128</v>
@@ -53703,19 +53756,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="C12" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>148</v>
@@ -53747,28 +53800,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="C13" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="I13" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="J13" s="4">
         <v>39933</v>
@@ -53791,16 +53844,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="C14" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>128</v>
@@ -53835,16 +53888,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="C15" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>128</v>
@@ -53879,19 +53932,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="C16" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>306</v>
@@ -53923,19 +53976,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="C17" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>371</v>
@@ -53967,16 +54020,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="C18" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
@@ -54011,19 +54064,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="C19" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>426</v>
@@ -54055,16 +54108,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="C20" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1211</v>
@@ -54099,19 +54152,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="C21" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>467</v>
@@ -54143,16 +54196,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="C22" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>128</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -44,7 +44,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">U!$A$1:$N$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">B!$A$1:$N$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'R'!$A$1:$N$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">G!$A$1:$N$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">G!$A$1:$N$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">WU!$A$1:$N$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">UB!$A$1:$N$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">BR!$A$1:$N$21</definedName>
@@ -8053,9 +8053,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -8074,7 +8074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8087,8 +8087,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8103,7 +8125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8112,14 +8134,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8149,9 +8163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8165,16 +8186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8196,22 +8209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8238,25 +8238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8268,7 +8256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8280,19 +8268,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8310,7 +8298,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8322,19 +8346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8346,13 +8364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8364,19 +8382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8388,25 +8400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8418,7 +8418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8456,17 +8456,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8495,13 +8489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8523,9 +8521,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8535,10 +8535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8547,130 +8547,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9073,7 +9073,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
@@ -9117,7 +9117,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
@@ -9161,7 +9161,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
@@ -9205,7 +9205,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
@@ -9249,7 +9249,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
@@ -9293,7 +9293,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="s">
@@ -9337,7 +9337,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
@@ -9381,7 +9381,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C9" t="s">
@@ -9425,7 +9425,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
@@ -9469,7 +9469,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
@@ -9645,7 +9645,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C15" t="s">
@@ -9689,7 +9689,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C16" t="s">
@@ -9909,7 +9909,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C21" t="s">
@@ -10041,7 +10041,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C24" t="s">
@@ -10129,7 +10129,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C26" t="s">
@@ -10217,7 +10217,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C28" t="s">
@@ -10305,7 +10305,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C30" t="s">
@@ -10393,7 +10393,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C32" t="s">
@@ -10437,7 +10437,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C33" t="s">
@@ -10525,7 +10525,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C35" t="s">
@@ -10613,7 +10613,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>165</v>
       </c>
       <c r="C37" t="s">
@@ -10701,7 +10701,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>172</v>
       </c>
       <c r="C39" t="s">
@@ -10789,7 +10789,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C41" t="s">
@@ -10833,7 +10833,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C42" t="s">
@@ -10921,7 +10921,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>193</v>
       </c>
       <c r="C44" t="s">
@@ -10965,7 +10965,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>196</v>
       </c>
       <c r="C45" t="s">
@@ -11009,7 +11009,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C46" t="s">
@@ -11097,7 +11097,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>210</v>
       </c>
       <c r="C48" t="s">
@@ -11185,7 +11185,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>215</v>
       </c>
       <c r="C50" t="s">
@@ -11229,7 +11229,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>221</v>
       </c>
       <c r="C51" t="s">
@@ -11273,7 +11273,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>224</v>
       </c>
       <c r="C52" t="s">
@@ -11449,7 +11449,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>237</v>
       </c>
       <c r="C56" t="s">
@@ -11537,7 +11537,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C58" t="s">
@@ -11669,7 +11669,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>258</v>
       </c>
       <c r="C61" t="s">
@@ -11713,7 +11713,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>263</v>
       </c>
       <c r="C62" t="s">
@@ -11801,7 +11801,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C64" t="s">
@@ -11845,7 +11845,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>273</v>
       </c>
       <c r="C65" t="s">
@@ -11889,7 +11889,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>279</v>
       </c>
       <c r="C66" t="s">
@@ -11933,7 +11933,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>284</v>
       </c>
       <c r="C67" t="s">
@@ -12021,7 +12021,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>294</v>
       </c>
       <c r="C69" t="s">
@@ -12065,7 +12065,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>300</v>
       </c>
       <c r="C70" t="s">
@@ -12241,7 +12241,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>313</v>
       </c>
       <c r="C74" t="s">
@@ -12285,7 +12285,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>318</v>
       </c>
       <c r="C75" t="s">
@@ -12549,7 +12549,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>344</v>
       </c>
       <c r="C81" t="s">
@@ -12637,7 +12637,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>349</v>
       </c>
       <c r="C83" t="s">
@@ -12681,7 +12681,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>354</v>
       </c>
       <c r="C84" t="s">
@@ -12725,7 +12725,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>356</v>
       </c>
       <c r="C85" t="s">
@@ -13209,7 +13209,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>402</v>
       </c>
       <c r="C96" t="s">
@@ -13561,7 +13561,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>429</v>
       </c>
       <c r="C104" t="s">
@@ -13737,7 +13737,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="5" t="s">
         <v>442</v>
       </c>
       <c r="C108" t="s">
@@ -14045,7 +14045,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="5" t="s">
         <v>470</v>
       </c>
       <c r="C115" t="s">
@@ -14089,7 +14089,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="5" t="s">
         <v>472</v>
       </c>
       <c r="C116" t="s">
@@ -14177,7 +14177,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="5" t="s">
         <v>480</v>
       </c>
       <c r="C118" t="s">
@@ -14221,7 +14221,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="5" t="s">
         <v>482</v>
       </c>
       <c r="C119" t="s">
@@ -14529,7 +14529,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="5" t="s">
         <v>505</v>
       </c>
       <c r="C126" t="s">
@@ -50436,7 +50436,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N118">
+  <autoFilter ref="A1:N119">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8052,10 +8052,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -8081,30 +8081,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8118,23 +8124,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8148,6 +8148,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -8178,42 +8186,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8238,19 +8238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8262,7 +8262,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8280,145 +8418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8429,30 +8429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8473,35 +8449,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8529,16 +8479,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8547,133 +8547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -21396,7 +21396,7 @@
         <v>2246</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2244</v>
@@ -37007,7 +37007,7 @@
         <v>2472</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>2314</v>
@@ -41348,7 +41348,7 @@
         <v>1210</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>1144</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8054,8 +8054,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -8074,7 +8074,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8088,29 +8125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8140,52 +8155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8202,18 +8171,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8238,7 +8238,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8250,7 +8286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8262,7 +8298,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8274,73 +8370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8358,13 +8388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8376,49 +8412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8429,6 +8429,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8456,6 +8465,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8467,35 +8500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8515,17 +8519,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8535,10 +8535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8547,133 +8547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14941,7 +14941,7 @@
         <v>1924</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>1911</v>
@@ -16137,7 +16137,7 @@
         <v>1986</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>1970</v>
@@ -17123,7 +17123,7 @@
         <v>2035</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>2022</v>
@@ -18234,7 +18234,7 @@
         <v>2093</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>2076</v>
@@ -19255,7 +19255,7 @@
         <v>2141</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>2132</v>
@@ -20262,7 +20262,7 @@
         <v>2190</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>2181</v>
@@ -24937,7 +24937,7 @@
         <v>723</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>510</v>
@@ -26521,7 +26521,7 @@
         <v>828</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="s">
         <v>510</v>
@@ -50702,7 +50702,7 @@
         <v>1729</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>1720</v>
@@ -51721,7 +51721,7 @@
         <v>1779</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>1765</v>
@@ -52521,7 +52521,7 @@
         <v>1818</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>1809</v>
@@ -53543,7 +53543,7 @@
         <v>1870</v>
       </c>
       <c r="D7" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1855</v>

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8074,44 +8074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8124,8 +8087,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8155,6 +8119,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -8166,6 +8137,57 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8187,31 +8209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8238,7 +8238,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8250,175 +8418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8434,9 +8434,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8469,7 +8480,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8518,27 +8529,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8547,133 +8547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8737,6 +8737,192 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -9003,7 +9189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -9510,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9554,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9598,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9730,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9774,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9818,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" hidden="1" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9862,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9950,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" hidden="1" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9994,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" hidden="1" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10082,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" hidden="1" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10170,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" hidden="1" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10258,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" hidden="1" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10346,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" hidden="1" spans="1:14">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10478,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" hidden="1" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10566,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" hidden="1" spans="1:14">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10654,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" hidden="1" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10742,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" hidden="1" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10874,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" hidden="1" spans="1:14">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11050,7 +11236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" hidden="1" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11138,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" hidden="1" spans="1:14">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11314,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" hidden="1" spans="1:14">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11358,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" hidden="1" spans="1:14">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11402,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" hidden="1" spans="1:14">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11490,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" hidden="1" spans="1:14">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11578,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" hidden="1" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11622,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" hidden="1" spans="1:14">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11754,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" hidden="1" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11974,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" hidden="1" spans="1:14">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12106,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" hidden="1" spans="1:14">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12150,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" hidden="1" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12194,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" hidden="1" spans="1:14">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12326,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" hidden="1" spans="1:14">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12370,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" hidden="1" spans="1:14">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12414,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" hidden="1" spans="1:14">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12458,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" hidden="1" spans="1:14">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12502,7 +12688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" hidden="1" spans="1:14">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12590,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" hidden="1" spans="1:14">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12766,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" hidden="1" spans="1:14">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12810,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" hidden="1" spans="1:14">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12854,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" hidden="1" spans="1:14">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12898,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" hidden="1" spans="1:14">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12942,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" hidden="1" spans="1:14">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12986,7 +13172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" hidden="1" spans="1:14">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13030,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" hidden="1" spans="1:14">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13074,7 +13260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" hidden="1" spans="1:14">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13118,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" hidden="1" spans="1:14">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13162,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" hidden="1" spans="1:14">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13250,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" hidden="1" spans="1:14">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13294,7 +13480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" hidden="1" spans="1:14">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13338,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" hidden="1" spans="1:14">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13382,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" hidden="1" spans="1:14">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13426,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" hidden="1" spans="1:14">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13470,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" hidden="1" spans="1:14">
       <c r="A102">
         <v>101</v>
       </c>
@@ -13514,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" hidden="1" spans="1:14">
       <c r="A103">
         <v>102</v>
       </c>
@@ -13602,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" hidden="1" spans="1:14">
       <c r="A105">
         <v>104</v>
       </c>
@@ -13646,7 +13832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" hidden="1" spans="1:14">
       <c r="A106">
         <v>105</v>
       </c>
@@ -13690,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" hidden="1" spans="1:14">
       <c r="A107">
         <v>106</v>
       </c>
@@ -13778,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" hidden="1" spans="1:14">
       <c r="A109">
         <v>108</v>
       </c>
@@ -13822,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" hidden="1" spans="1:14">
       <c r="A110">
         <v>109</v>
       </c>
@@ -13866,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" hidden="1" spans="1:14">
       <c r="A111">
         <v>110</v>
       </c>
@@ -13910,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" hidden="1" spans="1:14">
       <c r="A112">
         <v>111</v>
       </c>
@@ -13954,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" hidden="1" spans="1:14">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13998,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" hidden="1" spans="1:14">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14130,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" hidden="1" spans="1:14">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14262,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" hidden="1" spans="1:14">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14306,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" hidden="1" spans="1:14">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14350,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" hidden="1" spans="1:14">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14394,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" hidden="1" spans="1:14">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14438,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" hidden="1" spans="1:14">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14482,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" hidden="1" spans="1:14">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14585,6 +14771,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N126">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="0"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N127">
@@ -14599,7 +14788,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14754,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14798,7 +14987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" hidden="1" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14886,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14974,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15062,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15106,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15150,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15194,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15238,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15282,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15326,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15370,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15458,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15502,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" hidden="1" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15590,7 +15779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" hidden="1" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15678,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" hidden="1" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15781,6 +15970,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N26">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="9"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N27">
@@ -15795,7 +15987,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15906,7 +16098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" hidden="1" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15950,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -16082,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16170,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16214,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16258,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16390,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16434,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16478,7 +16670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16522,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16654,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16698,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" hidden="1" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16742,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" hidden="1" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16855,6 +17047,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N23">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="10"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N24">
@@ -16869,7 +17064,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17156,7 +17351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17200,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" hidden="1" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17288,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -17376,7 +17571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -17420,7 +17615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -17464,7 +17659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -17508,7 +17703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -17552,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -17596,7 +17791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -17640,7 +17835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -17728,7 +17923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -17772,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" hidden="1" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -17860,7 +18055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" hidden="1" spans="2:14">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -17879,6 +18074,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N23">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="11"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N23">
@@ -17893,7 +18091,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18003,7 +18201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" hidden="1" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18091,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.5" spans="1:14">
+    <row r="5" ht="15.5" hidden="1" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18179,7 +18377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18267,7 +18465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -18355,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18399,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18487,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -18531,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -18575,7 +18773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -18619,7 +18817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -18663,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -18707,7 +18905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" hidden="1" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -18839,7 +19037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" hidden="1" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -18883,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" hidden="1" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -18986,6 +19184,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N24">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="12"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N25">
@@ -19000,7 +19201,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19200,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" hidden="1" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19332,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" hidden="1" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19420,7 +19621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19464,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.5" spans="1:14">
+    <row r="11" ht="15.5" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19508,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19552,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19596,7 +19797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19640,7 +19841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19684,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19816,7 +20017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" hidden="1" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19860,7 +20061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19904,7 +20105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" hidden="1" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19994,6 +20195,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N22">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="13"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N22">
@@ -20008,7 +20212,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20119,7 +20323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" hidden="1" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20295,7 +20499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20339,7 +20543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" hidden="1" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20383,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20427,7 +20631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20471,7 +20675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20515,7 +20719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20559,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20603,7 +20807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20647,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20735,7 +20939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -20779,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -20955,7 +21159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" hidden="1" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -21045,6 +21249,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N23">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="14"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N23">
@@ -21735,7 +21942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22154,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -22374,7 +22581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22462,7 +22669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -22506,7 +22713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -22550,7 +22757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" hidden="1" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -22594,7 +22801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -22638,7 +22845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" hidden="1" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -22770,7 +22977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" hidden="1" spans="1:14">
       <c r="A24">
         <v>23</v>
       </c>
@@ -22814,7 +23021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" hidden="1" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -22946,7 +23153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" hidden="1" spans="1:14">
       <c r="A28">
         <v>27</v>
       </c>
@@ -23034,7 +23241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" hidden="1" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -23122,7 +23329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" hidden="1" spans="1:14">
       <c r="A32">
         <v>31</v>
       </c>
@@ -23342,7 +23549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" hidden="1" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -23430,7 +23637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" hidden="1" spans="1:14">
       <c r="A39">
         <v>38</v>
       </c>
@@ -23474,7 +23681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" hidden="1" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
@@ -23518,7 +23725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" hidden="1" spans="1:14">
       <c r="A41">
         <v>40</v>
       </c>
@@ -23562,7 +23769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" hidden="1" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
@@ -23650,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" hidden="1" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -23694,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" hidden="1" spans="1:14">
       <c r="A45">
         <v>44</v>
       </c>
@@ -23738,7 +23945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" hidden="1" spans="1:14">
       <c r="A46">
         <v>45</v>
       </c>
@@ -23782,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" hidden="1" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -23826,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" hidden="1" spans="1:14">
       <c r="A48">
         <v>47</v>
       </c>
@@ -23870,7 +24077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" hidden="1" spans="1:14">
       <c r="A49">
         <v>48</v>
       </c>
@@ -23914,7 +24121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" hidden="1" spans="1:14">
       <c r="A50">
         <v>49</v>
       </c>
@@ -23958,7 +24165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" hidden="1" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -24002,7 +24209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" hidden="1" spans="1:14">
       <c r="A52">
         <v>51</v>
       </c>
@@ -24134,7 +24341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" hidden="1" spans="1:14">
       <c r="A55">
         <v>54</v>
       </c>
@@ -24266,7 +24473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" hidden="1" spans="1:14">
       <c r="A58">
         <v>57</v>
       </c>
@@ -24398,7 +24605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" hidden="1" spans="1:14">
       <c r="A61">
         <v>60</v>
       </c>
@@ -24486,7 +24693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" hidden="1" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
@@ -24618,7 +24825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" hidden="1" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -24662,7 +24869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" hidden="1" spans="1:14">
       <c r="A67">
         <v>66</v>
       </c>
@@ -24794,7 +25001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" hidden="1" spans="1:14">
       <c r="A70">
         <v>69</v>
       </c>
@@ -24882,7 +25089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" hidden="1" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
@@ -24970,7 +25177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" hidden="1" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
@@ -25102,7 +25309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" hidden="1" spans="1:14">
       <c r="A77">
         <v>76</v>
       </c>
@@ -25146,7 +25353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" hidden="1" spans="1:14">
       <c r="A78">
         <v>77</v>
       </c>
@@ -25234,7 +25441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" hidden="1" spans="1:14">
       <c r="A80">
         <v>79</v>
       </c>
@@ -25366,7 +25573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" hidden="1" spans="1:14">
       <c r="A83">
         <v>82</v>
       </c>
@@ -25498,7 +25705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" hidden="1" spans="1:14">
       <c r="A86">
         <v>85</v>
       </c>
@@ -25586,7 +25793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" hidden="1" spans="1:14">
       <c r="A88">
         <v>87</v>
       </c>
@@ -25674,7 +25881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" hidden="1" spans="1:14">
       <c r="A90">
         <v>89</v>
       </c>
@@ -25762,7 +25969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" hidden="1" spans="1:14">
       <c r="A92">
         <v>91</v>
       </c>
@@ -25850,7 +26057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" hidden="1" spans="1:14">
       <c r="A94">
         <v>93</v>
       </c>
@@ -25894,7 +26101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" hidden="1" spans="1:14">
       <c r="A95">
         <v>94</v>
       </c>
@@ -25938,7 +26145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" hidden="1" spans="1:14">
       <c r="A96">
         <v>95</v>
       </c>
@@ -25982,7 +26189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" hidden="1" spans="1:14">
       <c r="A97">
         <v>96</v>
       </c>
@@ -26026,7 +26233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" hidden="1" spans="1:14">
       <c r="A98">
         <v>97</v>
       </c>
@@ -26070,7 +26277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" hidden="1" spans="1:14">
       <c r="A99">
         <v>98</v>
       </c>
@@ -26114,7 +26321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" hidden="1" spans="1:14">
       <c r="A100">
         <v>99</v>
       </c>
@@ -26202,7 +26409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" hidden="1" spans="1:14">
       <c r="A102">
         <v>101</v>
       </c>
@@ -26246,7 +26453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" hidden="1" spans="1:14">
       <c r="A103">
         <v>102</v>
       </c>
@@ -26334,7 +26541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" hidden="1" spans="1:14">
       <c r="A105">
         <v>104</v>
       </c>
@@ -26422,7 +26629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" hidden="1" spans="1:14">
       <c r="A107">
         <v>106</v>
       </c>
@@ -26466,7 +26673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" hidden="1" spans="1:14">
       <c r="A108">
         <v>107</v>
       </c>
@@ -26510,7 +26717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" hidden="1" spans="1:14">
       <c r="A109">
         <v>108</v>
       </c>
@@ -26554,7 +26761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" hidden="1" spans="1:14">
       <c r="A110">
         <v>109</v>
       </c>
@@ -26598,7 +26805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" hidden="1" spans="1:14">
       <c r="A111">
         <v>110</v>
       </c>
@@ -26642,7 +26849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" hidden="1" spans="1:14">
       <c r="A112">
         <v>111</v>
       </c>
@@ -26686,7 +26893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" hidden="1" spans="1:14">
       <c r="A113">
         <v>112</v>
       </c>
@@ -26730,7 +26937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" hidden="1" spans="1:14">
       <c r="A114">
         <v>113</v>
       </c>
@@ -26774,7 +26981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" hidden="1" spans="1:14">
       <c r="A115">
         <v>114</v>
       </c>
@@ -26818,7 +27025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" hidden="1" spans="1:14">
       <c r="A116">
         <v>115</v>
       </c>
@@ -26906,7 +27113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" hidden="1" spans="1:14">
       <c r="A118">
         <v>117</v>
       </c>
@@ -26950,7 +27157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" hidden="1" spans="1:14">
       <c r="A119">
         <v>118</v>
       </c>
@@ -27040,6 +27247,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N120">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="1"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27050,7 +27260,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27117,7 +27327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" hidden="1" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27207,6 +27417,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N3">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="15"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N3">
@@ -27221,7 +27434,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27332,7 +27545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" hidden="1" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27378,6 +27591,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N3">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="16"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27555,7 +27771,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27622,7 +27838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" hidden="1" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27710,7 +27926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27756,6 +27972,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N4">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="17"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28219,7 +28438,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28286,7 +28505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" hidden="1" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28374,7 +28593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -28418,7 +28637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" hidden="1" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -28462,7 +28681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" hidden="1" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -28508,6 +28727,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N6">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="18"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28518,7 +28740,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28585,7 +28807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" hidden="1" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -28761,7 +28983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" hidden="1" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -29201,7 +29423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -29245,7 +29467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -29333,7 +29555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" hidden="1" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -29465,7 +29687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" hidden="1" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -29509,7 +29731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" hidden="1" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -29568,6 +29790,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N23">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="19"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N24">
@@ -29582,7 +29807,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29649,7 +29874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" hidden="1" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -29783,6 +30008,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N4">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="20"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29793,7 +30021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29904,7 +30132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" hidden="1" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -29992,7 +30220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" hidden="1" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -30080,7 +30308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -30256,7 +30484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -30300,7 +30528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -30388,7 +30616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -30476,7 +30704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -30520,7 +30748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -30564,7 +30792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -30916,7 +31144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" hidden="1" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -30960,7 +31188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" hidden="1" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -31092,7 +31320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" hidden="1" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -31224,7 +31452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" hidden="1" spans="1:14">
       <c r="A33">
         <v>32</v>
       </c>
@@ -31268,7 +31496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" hidden="1" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -31356,7 +31584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" hidden="1" spans="1:14">
       <c r="A36">
         <v>35</v>
       </c>
@@ -31400,7 +31628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" hidden="1" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -31444,7 +31672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" hidden="1" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -31576,7 +31804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" hidden="1" spans="1:14">
       <c r="A41">
         <v>40</v>
       </c>
@@ -31620,7 +31848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" hidden="1" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
@@ -31708,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" hidden="1" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -31840,7 +32068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" hidden="1" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -31928,7 +32156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" hidden="1" spans="1:14">
       <c r="A49">
         <v>48</v>
       </c>
@@ -32016,7 +32244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" hidden="1" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -32060,7 +32288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" hidden="1" spans="1:14">
       <c r="A52">
         <v>51</v>
       </c>
@@ -32104,7 +32332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" hidden="1" spans="1:14">
       <c r="A53">
         <v>52</v>
       </c>
@@ -32148,7 +32376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" hidden="1" spans="1:14">
       <c r="A54">
         <v>53</v>
       </c>
@@ -32280,7 +32508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" hidden="1" spans="1:14">
       <c r="A57">
         <v>56</v>
       </c>
@@ -32324,7 +32552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" hidden="1" spans="1:14">
       <c r="A58">
         <v>57</v>
       </c>
@@ -32368,7 +32596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" hidden="1" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
@@ -32456,7 +32684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" hidden="1" spans="1:14">
       <c r="A61">
         <v>60</v>
       </c>
@@ -32632,7 +32860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" hidden="1" spans="1:14">
       <c r="A65">
         <v>64</v>
       </c>
@@ -32676,7 +32904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" hidden="1" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -32808,7 +33036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" hidden="1" spans="1:14">
       <c r="A69">
         <v>68</v>
       </c>
@@ -32896,7 +33124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" hidden="1" spans="1:14">
       <c r="A71">
         <v>70</v>
       </c>
@@ -33028,7 +33256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" hidden="1" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
@@ -33072,7 +33300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" hidden="1" spans="1:14">
       <c r="A75">
         <v>74</v>
       </c>
@@ -33204,7 +33432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" hidden="1" spans="1:14">
       <c r="A78">
         <v>77</v>
       </c>
@@ -33248,7 +33476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" hidden="1" spans="1:14">
       <c r="A79">
         <v>78</v>
       </c>
@@ -33336,7 +33564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" hidden="1" spans="1:14">
       <c r="A81">
         <v>80</v>
       </c>
@@ -33380,7 +33608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" hidden="1" spans="1:14">
       <c r="A82">
         <v>81</v>
       </c>
@@ -33424,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" hidden="1" spans="1:14">
       <c r="A83">
         <v>82</v>
       </c>
@@ -33468,7 +33696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" hidden="1" spans="1:14">
       <c r="A84">
         <v>83</v>
       </c>
@@ -33556,7 +33784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" hidden="1" spans="1:14">
       <c r="A86">
         <v>85</v>
       </c>
@@ -33600,7 +33828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" hidden="1" spans="1:14">
       <c r="A87">
         <v>86</v>
       </c>
@@ -33776,7 +34004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" hidden="1" spans="1:14">
       <c r="A91">
         <v>90</v>
       </c>
@@ -33820,7 +34048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" hidden="1" spans="1:14">
       <c r="A92">
         <v>91</v>
       </c>
@@ -33996,7 +34224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" hidden="1" spans="1:14">
       <c r="A96">
         <v>95</v>
       </c>
@@ -34040,7 +34268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" hidden="1" spans="1:14">
       <c r="A97">
         <v>96</v>
       </c>
@@ -34084,7 +34312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" hidden="1" spans="1:14">
       <c r="A98">
         <v>97</v>
       </c>
@@ -34128,7 +34356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" hidden="1" spans="1:14">
       <c r="A99">
         <v>98</v>
       </c>
@@ -34172,7 +34400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" hidden="1" spans="1:14">
       <c r="A100">
         <v>99</v>
       </c>
@@ -34216,7 +34444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" hidden="1" spans="1:14">
       <c r="A101">
         <v>100</v>
       </c>
@@ -34260,7 +34488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" hidden="1" spans="1:14">
       <c r="A102">
         <v>101</v>
       </c>
@@ -34304,7 +34532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" hidden="1" spans="1:14">
       <c r="A103">
         <v>102</v>
       </c>
@@ -34480,7 +34708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" hidden="1" spans="1:14">
       <c r="A107">
         <v>106</v>
       </c>
@@ -34524,7 +34752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" hidden="1" spans="1:14">
       <c r="A108">
         <v>107</v>
       </c>
@@ -34568,7 +34796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" hidden="1" spans="1:14">
       <c r="A109">
         <v>108</v>
       </c>
@@ -34700,7 +34928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" hidden="1" spans="1:14">
       <c r="A112">
         <v>111</v>
       </c>
@@ -34744,7 +34972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" hidden="1" spans="1:14">
       <c r="A113">
         <v>112</v>
       </c>
@@ -34788,7 +35016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" hidden="1" spans="1:14">
       <c r="A114">
         <v>113</v>
       </c>
@@ -34935,6 +35163,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N116">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="2"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N117">
@@ -34949,7 +35180,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35104,7 +35335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -35236,7 +35467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -35324,7 +35555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -35456,7 +35687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -35500,7 +35731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -35588,7 +35819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -35632,7 +35863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -35676,7 +35907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -35720,7 +35951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -35808,7 +36039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -36028,7 +36259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" hidden="1" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -36072,7 +36303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" hidden="1" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -36204,7 +36435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" hidden="1" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -36380,7 +36611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" hidden="1" spans="1:14">
       <c r="A33">
         <v>32</v>
       </c>
@@ -36424,7 +36655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" hidden="1" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -36468,7 +36699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" hidden="1" spans="1:14">
       <c r="A35">
         <v>34</v>
       </c>
@@ -36556,7 +36787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" hidden="1" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -36688,7 +36919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" hidden="1" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
@@ -36864,7 +37095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" hidden="1" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -36908,7 +37139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" hidden="1" spans="1:14">
       <c r="A45">
         <v>44</v>
       </c>
@@ -37128,7 +37359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" hidden="1" spans="1:14">
       <c r="A50">
         <v>49</v>
       </c>
@@ -37172,7 +37403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" hidden="1" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -37348,7 +37579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" hidden="1" spans="1:14">
       <c r="A55">
         <v>54</v>
       </c>
@@ -37524,7 +37755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" hidden="1" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
@@ -37568,7 +37799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" hidden="1" spans="1:14">
       <c r="A60">
         <v>59</v>
       </c>
@@ -37700,7 +37931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" hidden="1" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
@@ -37744,7 +37975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" hidden="1" spans="1:14">
       <c r="A64">
         <v>63</v>
       </c>
@@ -37832,7 +38063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" hidden="1" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -37964,7 +38195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" hidden="1" spans="1:14">
       <c r="A69">
         <v>68</v>
       </c>
@@ -38008,7 +38239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" hidden="1" spans="1:14">
       <c r="A70">
         <v>69</v>
       </c>
@@ -38052,7 +38283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" hidden="1" spans="1:14">
       <c r="A71">
         <v>70</v>
       </c>
@@ -38096,7 +38327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" hidden="1" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
@@ -38142,6 +38373,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N72">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="21"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38152,7 +38386,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38438,7 +38672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -38482,7 +38716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" hidden="1" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -38526,7 +38760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -38570,7 +38804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -38614,7 +38848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -38658,7 +38892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -38790,7 +39024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -38878,7 +39112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -38922,7 +39156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -39274,7 +39508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" hidden="1" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -39318,7 +39552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" hidden="1" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -39626,7 +39860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" hidden="1" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -39670,7 +39904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" hidden="1" spans="1:14">
       <c r="A35">
         <v>34</v>
       </c>
@@ -39802,7 +40036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" hidden="1" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -39846,7 +40080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" hidden="1" spans="1:14">
       <c r="A39">
         <v>38</v>
       </c>
@@ -39980,6 +40214,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N41">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="22"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N41">
@@ -39994,7 +40231,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40061,7 +40298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" hidden="1" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -40149,7 +40386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -40369,7 +40606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -40413,7 +40650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -40457,7 +40694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -40589,7 +40826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -40677,7 +40914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -40853,7 +41090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -41117,7 +41354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" hidden="1" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -41161,7 +41398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" hidden="1" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -41205,7 +41442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" hidden="1" spans="1:14">
       <c r="A28">
         <v>27</v>
       </c>
@@ -41249,7 +41486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" hidden="1" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -41293,7 +41530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" hidden="1" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -41337,7 +41574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" hidden="1" spans="1:14">
       <c r="A31">
         <v>30</v>
       </c>
@@ -41425,7 +41662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" hidden="1" spans="1:14">
       <c r="A33">
         <v>32</v>
       </c>
@@ -41469,7 +41706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" hidden="1" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -41557,7 +41794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" hidden="1" spans="1:14">
       <c r="A36">
         <v>35</v>
       </c>
@@ -41601,7 +41838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" hidden="1" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -41645,7 +41882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" hidden="1" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -41689,7 +41926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" hidden="1" spans="1:14">
       <c r="A39">
         <v>38</v>
       </c>
@@ -41733,7 +41970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" hidden="1" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
@@ -41821,7 +42058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" hidden="1" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
@@ -41909,7 +42146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" hidden="1" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -41953,7 +42190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" hidden="1" spans="1:14">
       <c r="A45">
         <v>44</v>
       </c>
@@ -42041,7 +42278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" hidden="1" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -42085,7 +42322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" hidden="1" spans="1:14">
       <c r="A48">
         <v>47</v>
       </c>
@@ -42173,7 +42410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" hidden="1" spans="1:14">
       <c r="A50">
         <v>49</v>
       </c>
@@ -42217,7 +42454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" hidden="1" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -42305,7 +42542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" hidden="1" spans="1:14">
       <c r="A53">
         <v>52</v>
       </c>
@@ -42481,7 +42718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" hidden="1" spans="1:14">
       <c r="A57">
         <v>56</v>
       </c>
@@ -42525,7 +42762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" hidden="1" spans="1:14">
       <c r="A58">
         <v>57</v>
       </c>
@@ -42569,7 +42806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" hidden="1" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
@@ -42877,7 +43114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" hidden="1" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -42921,7 +43158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" hidden="1" spans="1:14">
       <c r="A67">
         <v>66</v>
       </c>
@@ -43141,7 +43378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" hidden="1" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
@@ -43229,7 +43466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" hidden="1" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
@@ -43361,7 +43598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" hidden="1" spans="1:14">
       <c r="A77">
         <v>76</v>
       </c>
@@ -43405,7 +43642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" hidden="1" spans="1:14">
       <c r="A78">
         <v>77</v>
       </c>
@@ -43537,7 +43774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" hidden="1" spans="1:14">
       <c r="A81">
         <v>80</v>
       </c>
@@ -43625,7 +43862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" hidden="1" spans="1:14">
       <c r="A83">
         <v>82</v>
       </c>
@@ -43713,7 +43950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" hidden="1" spans="1:14">
       <c r="A85">
         <v>84</v>
       </c>
@@ -43757,7 +43994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" hidden="1" spans="1:14">
       <c r="A86">
         <v>85</v>
       </c>
@@ -43801,7 +44038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" hidden="1" spans="1:14">
       <c r="A87">
         <v>86</v>
       </c>
@@ -43845,7 +44082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" hidden="1" spans="1:14">
       <c r="A88">
         <v>87</v>
       </c>
@@ -44065,7 +44302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" hidden="1" spans="1:14">
       <c r="A93">
         <v>92</v>
       </c>
@@ -44109,7 +44346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" hidden="1" spans="1:14">
       <c r="A94">
         <v>93</v>
       </c>
@@ -44153,7 +44390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" hidden="1" spans="1:14">
       <c r="A95">
         <v>94</v>
       </c>
@@ -44285,7 +44522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" hidden="1" spans="1:14">
       <c r="A98">
         <v>97</v>
       </c>
@@ -44461,7 +44698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" hidden="1" spans="1:14">
       <c r="A102">
         <v>101</v>
       </c>
@@ -44505,7 +44742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" hidden="1" spans="1:14">
       <c r="A103">
         <v>102</v>
       </c>
@@ -44593,7 +44830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" hidden="1" spans="1:14">
       <c r="A105">
         <v>104</v>
       </c>
@@ -44681,7 +44918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" hidden="1" spans="1:14">
       <c r="A107">
         <v>106</v>
       </c>
@@ -44725,7 +44962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" hidden="1" spans="1:14">
       <c r="A108">
         <v>107</v>
       </c>
@@ -44769,7 +45006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" hidden="1" spans="1:14">
       <c r="A109">
         <v>108</v>
       </c>
@@ -44813,7 +45050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" hidden="1" spans="1:14">
       <c r="A110">
         <v>109</v>
       </c>
@@ -44857,7 +45094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" hidden="1" spans="1:14">
       <c r="A111">
         <v>110</v>
       </c>
@@ -44901,7 +45138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" hidden="1" spans="1:14">
       <c r="A112">
         <v>111</v>
       </c>
@@ -44945,7 +45182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" hidden="1" spans="1:14">
       <c r="A113">
         <v>112</v>
       </c>
@@ -44989,7 +45226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" hidden="1" spans="1:14">
       <c r="A114">
         <v>113</v>
       </c>
@@ -45033,7 +45270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" hidden="1" spans="1:14">
       <c r="A115">
         <v>114</v>
       </c>
@@ -45121,7 +45358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" hidden="1" spans="1:14">
       <c r="A117">
         <v>116</v>
       </c>
@@ -45167,6 +45404,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N117">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="3"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45177,7 +45417,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -45332,7 +45572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -45684,7 +45924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -45816,7 +46056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -45860,7 +46100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -46168,7 +46408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" hidden="1" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -46300,7 +46540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" hidden="1" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -46344,7 +46584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" hidden="1" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -46388,7 +46628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" hidden="1" spans="1:14">
       <c r="A28">
         <v>27</v>
       </c>
@@ -46476,7 +46716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" hidden="1" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -46520,7 +46760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" hidden="1" spans="1:14">
       <c r="A31">
         <v>30</v>
       </c>
@@ -46608,7 +46848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" hidden="1" spans="1:14">
       <c r="A33">
         <v>32</v>
       </c>
@@ -46696,7 +46936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" hidden="1" spans="1:14">
       <c r="A35">
         <v>34</v>
       </c>
@@ -46740,7 +46980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" hidden="1" spans="1:14">
       <c r="A36">
         <v>35</v>
       </c>
@@ -46784,7 +47024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" hidden="1" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -46828,7 +47068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" hidden="1" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -46872,7 +47112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" hidden="1" spans="1:14">
       <c r="A39">
         <v>38</v>
       </c>
@@ -47004,7 +47244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" hidden="1" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
@@ -47048,7 +47288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" hidden="1" spans="1:14">
       <c r="A43">
         <v>42</v>
       </c>
@@ -47092,7 +47332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" hidden="1" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -47136,7 +47376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" hidden="1" spans="1:14">
       <c r="A45">
         <v>44</v>
       </c>
@@ -47224,7 +47464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" hidden="1" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -47312,7 +47552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" hidden="1" spans="1:14">
       <c r="A49">
         <v>48</v>
       </c>
@@ -47356,7 +47596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" hidden="1" spans="1:14">
       <c r="A50">
         <v>49</v>
       </c>
@@ -47400,7 +47640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" hidden="1" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -47576,7 +47816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" hidden="1" spans="1:14">
       <c r="A55">
         <v>54</v>
       </c>
@@ -47664,7 +47904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" hidden="1" spans="1:14">
       <c r="A57">
         <v>56</v>
       </c>
@@ -47796,7 +48036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" hidden="1" spans="1:14">
       <c r="A60">
         <v>59</v>
       </c>
@@ -47840,7 +48080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" hidden="1" spans="1:14">
       <c r="A61">
         <v>60</v>
       </c>
@@ -47884,7 +48124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" hidden="1" spans="1:14">
       <c r="A62">
         <v>61</v>
       </c>
@@ -47928,7 +48168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" hidden="1" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
@@ -48060,7 +48300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" hidden="1" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -48104,7 +48344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" hidden="1" spans="1:14">
       <c r="A67">
         <v>66</v>
       </c>
@@ -48236,7 +48476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" hidden="1" spans="1:14">
       <c r="A70">
         <v>69</v>
       </c>
@@ -48368,7 +48608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" hidden="1" spans="1:14">
       <c r="A73">
         <v>72</v>
       </c>
@@ -48412,7 +48652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" hidden="1" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
@@ -48456,7 +48696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" hidden="1" spans="1:14">
       <c r="A75">
         <v>74</v>
       </c>
@@ -48544,7 +48784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" hidden="1" spans="1:14">
       <c r="A77">
         <v>76</v>
       </c>
@@ -48632,7 +48872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" hidden="1" spans="1:14">
       <c r="A79">
         <v>78</v>
       </c>
@@ -48676,7 +48916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" hidden="1" spans="1:14">
       <c r="A80">
         <v>79</v>
       </c>
@@ -48720,7 +48960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" hidden="1" spans="1:14">
       <c r="A81">
         <v>80</v>
       </c>
@@ -48764,7 +49004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" hidden="1" spans="1:14">
       <c r="A82">
         <v>81</v>
       </c>
@@ -48852,7 +49092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" hidden="1" spans="1:14">
       <c r="A84">
         <v>83</v>
       </c>
@@ -48896,7 +49136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" hidden="1" spans="1:14">
       <c r="A85">
         <v>84</v>
       </c>
@@ -49028,7 +49268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" hidden="1" spans="1:14">
       <c r="A88">
         <v>87</v>
       </c>
@@ -49116,7 +49356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" hidden="1" spans="1:14">
       <c r="A90">
         <v>89</v>
       </c>
@@ -49160,7 +49400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" hidden="1" spans="1:14">
       <c r="A91">
         <v>90</v>
       </c>
@@ -49336,7 +49576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" hidden="1" spans="1:14">
       <c r="A95">
         <v>94</v>
       </c>
@@ -49380,7 +49620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" hidden="1" spans="1:14">
       <c r="A96">
         <v>95</v>
       </c>
@@ -49468,7 +49708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" hidden="1" spans="1:14">
       <c r="A98">
         <v>97</v>
       </c>
@@ -49600,7 +49840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" hidden="1" spans="1:14">
       <c r="A101">
         <v>100</v>
       </c>
@@ -49644,7 +49884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" hidden="1" spans="1:14">
       <c r="A102">
         <v>101</v>
       </c>
@@ -49688,7 +49928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" hidden="1" spans="1:14">
       <c r="A103">
         <v>102</v>
       </c>
@@ -49732,7 +49972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" hidden="1" spans="1:14">
       <c r="A104">
         <v>103</v>
       </c>
@@ -49820,7 +50060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" hidden="1" spans="1:14">
       <c r="A106">
         <v>105</v>
       </c>
@@ -49864,7 +50104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" hidden="1" spans="1:14">
       <c r="A107">
         <v>106</v>
       </c>
@@ -49952,7 +50192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" hidden="1" spans="1:14">
       <c r="A109">
         <v>108</v>
       </c>
@@ -49996,7 +50236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" hidden="1" spans="1:14">
       <c r="A110">
         <v>109</v>
       </c>
@@ -50040,7 +50280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" hidden="1" spans="1:14">
       <c r="A111">
         <v>110</v>
       </c>
@@ -50084,7 +50324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" hidden="1" spans="1:14">
       <c r="A112">
         <v>111</v>
       </c>
@@ -50128,7 +50368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" hidden="1" spans="1:14">
       <c r="A113">
         <v>112</v>
       </c>
@@ -50216,7 +50456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" hidden="1" spans="1:14">
       <c r="A115">
         <v>114</v>
       </c>
@@ -50260,7 +50500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" hidden="1" spans="1:14">
       <c r="A116">
         <v>115</v>
       </c>
@@ -50438,6 +50678,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N119">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="4"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50448,7 +50691,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50603,7 +50846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -50735,7 +50978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -50823,7 +51066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -50867,7 +51110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -50911,7 +51154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -50955,7 +51198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -50999,7 +51242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -51175,7 +51418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -51219,7 +51462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -51263,7 +51506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" hidden="1" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -51365,6 +51608,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N20">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="5"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N21">
@@ -51379,7 +51625,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51534,7 +51780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -51622,7 +51868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" hidden="1" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -51754,7 +52000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -51842,7 +52088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -51886,7 +52132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -52018,7 +52264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" hidden="1" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -52062,7 +52308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" hidden="1" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -52106,7 +52352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -52150,7 +52396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -52253,6 +52499,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N19">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="6"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N20">
@@ -52267,7 +52516,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52466,7 +52715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" hidden="1" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -52554,7 +52803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" hidden="1" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -52598,7 +52847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" hidden="1" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -52642,7 +52891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -52730,7 +52979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -52774,7 +53023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -52818,7 +53067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" hidden="1" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -52994,7 +53243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -53038,7 +53287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -53082,7 +53331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" hidden="1" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -53126,7 +53375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -53231,6 +53480,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N21">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="7"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N22">
@@ -53245,7 +53497,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53400,7 +53652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" hidden="1" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -53488,7 +53740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" hidden="1" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -53576,7 +53828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" hidden="1" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -53620,7 +53872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" hidden="1" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -53664,7 +53916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" hidden="1" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -53708,7 +53960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" hidden="1" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -53752,7 +54004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" hidden="1" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -53840,7 +54092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" hidden="1" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -53972,7 +54224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" hidden="1" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -54016,7 +54268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" hidden="1" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -54104,7 +54356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" hidden="1" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -54148,7 +54400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" hidden="1" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -54238,6 +54490,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N22">
+    <filterColumn colId="1">
+      <colorFilter cellColor="0" dxfId="8"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:N22">

--- a/cube_cards.xlsx
+++ b/cube_cards.xlsx
@@ -8052,10 +8052,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -8074,7 +8074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8088,8 +8088,59 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8119,8 +8170,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8143,51 +8203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8198,22 +8214,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8238,13 +8238,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8256,25 +8274,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8286,37 +8292,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8334,7 +8322,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8346,37 +8400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8388,37 +8412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8429,26 +8429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8470,32 +8450,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="dou